--- a/ShanghaiCompositeIndex/上证股票数据每月.xlsx
+++ b/ShanghaiCompositeIndex/上证股票数据每月.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/BOOTCAMP/ResillioSync/gooDrive/svn/SumDB/2017Utas415/3 RNN/workshop5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\PythonAI\ShanghaiCompositeIndex\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27705" windowHeight="17535" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -67,12 +68,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,21 +134,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,16 +425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -476,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>42934</v>
       </c>
@@ -508,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>42916</v>
       </c>
@@ -540,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>42886</v>
       </c>
@@ -572,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>42853</v>
       </c>
@@ -604,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>42825</v>
       </c>
@@ -636,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>42794</v>
       </c>
@@ -668,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>42761</v>
       </c>
@@ -700,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>42734</v>
       </c>
@@ -732,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>42704</v>
       </c>
@@ -764,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>42674</v>
       </c>
@@ -796,7 +815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>42643</v>
       </c>
@@ -828,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>42613</v>
       </c>
@@ -860,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>42580</v>
       </c>
@@ -892,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>42551</v>
       </c>
@@ -924,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>42521</v>
       </c>
@@ -956,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>42489</v>
       </c>
@@ -988,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>42460</v>
       </c>
@@ -1020,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>42277</v>
       </c>
@@ -1052,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>42247</v>
       </c>
@@ -1084,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>42216</v>
       </c>
@@ -1116,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
@@ -1148,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>42153</v>
       </c>
@@ -1180,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>42124</v>
       </c>
@@ -1212,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>42094</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>42062</v>
       </c>
@@ -1276,7 +1295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>42034</v>
       </c>
@@ -1308,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>42004</v>
       </c>
@@ -1340,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>41971</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>41943</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>41912</v>
       </c>
@@ -1436,7 +1455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>41880</v>
       </c>
@@ -1468,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>41851</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>41820</v>
       </c>
@@ -1532,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>41789</v>
       </c>
@@ -1564,7 +1583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>41759</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>41729</v>
       </c>
@@ -1628,7 +1647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>41698</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>41669</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>41639</v>
       </c>
@@ -1724,7 +1743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>41607</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>41578</v>
       </c>
@@ -1788,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>41547</v>
       </c>
@@ -1820,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>41516</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>41486</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>41453</v>
       </c>
@@ -1916,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>41425</v>
       </c>
@@ -1948,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>41390</v>
       </c>
@@ -1980,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>41362</v>
       </c>
@@ -2012,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>41333</v>
       </c>
@@ -2044,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>41305</v>
       </c>
@@ -2076,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>41274</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>41243</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>41213</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>41180</v>
       </c>
@@ -2204,7 +2223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>41152</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>41121</v>
       </c>
@@ -2268,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>41089</v>
       </c>
@@ -2300,7 +2319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>41060</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>41026</v>
       </c>
@@ -2364,7 +2383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>40998</v>
       </c>
@@ -2396,7 +2415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>40968</v>
       </c>
@@ -2428,7 +2447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>40939</v>
       </c>
@@ -2460,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>40907</v>
       </c>
@@ -2492,7 +2511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>40877</v>
       </c>
@@ -2524,7 +2543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>40847</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>40816</v>
       </c>
@@ -2588,7 +2607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>40786</v>
       </c>
@@ -2620,7 +2639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>40753</v>
       </c>
@@ -2652,7 +2671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>40724</v>
       </c>
@@ -2684,7 +2703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>40694</v>
       </c>
@@ -2716,7 +2735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>40662</v>
       </c>
@@ -2748,7 +2767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>40633</v>
       </c>
@@ -2780,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
@@ -2812,7 +2831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>40574</v>
       </c>
@@ -2844,7 +2863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>40543</v>
       </c>
@@ -2876,7 +2895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>40512</v>
       </c>
@@ -2908,7 +2927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>40480</v>
       </c>
@@ -2940,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>40451</v>
       </c>
@@ -2972,7 +2991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>40421</v>
       </c>
@@ -3004,7 +3023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>40389</v>
       </c>
@@ -3036,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>40359</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>40329</v>
       </c>
@@ -3100,7 +3119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>40298</v>
       </c>
@@ -3132,7 +3151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>40268</v>
       </c>
@@ -3164,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>40235</v>
       </c>
@@ -3196,7 +3215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>40207</v>
       </c>
@@ -3228,7 +3247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>40178</v>
       </c>
@@ -3260,7 +3279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>40147</v>
       </c>
@@ -3292,7 +3311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>40116</v>
       </c>
@@ -3324,7 +3343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>40086</v>
       </c>
@@ -3356,7 +3375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>40056</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>40025</v>
       </c>
@@ -3420,7 +3439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>39994</v>
       </c>
@@ -3452,7 +3471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>39960</v>
       </c>
@@ -3484,7 +3503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>39933</v>
       </c>
@@ -3516,7 +3535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>39903</v>
       </c>
@@ -3548,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>39871</v>
       </c>
@@ -3580,7 +3599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>39836</v>
       </c>
@@ -3612,7 +3631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>39813</v>
       </c>
@@ -3644,7 +3663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>39780</v>
       </c>
@@ -3676,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>39752</v>
       </c>
@@ -3708,7 +3727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>39717</v>
       </c>
@@ -3740,7 +3759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>39689</v>
       </c>
@@ -3772,7 +3791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>39660</v>
       </c>
@@ -3804,7 +3823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>39629</v>
       </c>
@@ -3836,7 +3855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>39598</v>
       </c>
@@ -3868,7 +3887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>39568</v>
       </c>
@@ -3900,7 +3919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>39538</v>
       </c>
@@ -3932,7 +3951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>39507</v>
       </c>
@@ -3964,7 +3983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>39478</v>
       </c>
@@ -3996,7 +4015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>39444</v>
       </c>
@@ -4028,7 +4047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>39416</v>
       </c>
@@ -4060,7 +4079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>39386</v>
       </c>
@@ -4092,7 +4111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>39353</v>
       </c>
@@ -4124,7 +4143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>39325</v>
       </c>
@@ -4156,7 +4175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>39294</v>
       </c>
@@ -4188,7 +4207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>39262</v>
       </c>
@@ -4220,7 +4239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>39233</v>
       </c>
@@ -4252,7 +4271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>39202</v>
       </c>
@@ -4284,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>39171</v>
       </c>
@@ -4316,7 +4335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>39141</v>
       </c>
@@ -4348,7 +4367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>39113</v>
       </c>
@@ -4380,7 +4399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>39080</v>
       </c>
@@ -4412,7 +4431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>39051</v>
       </c>
@@ -4444,7 +4463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>39021</v>
       </c>
@@ -4476,7 +4495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>38989</v>
       </c>
@@ -4508,7 +4527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>38960</v>
       </c>
@@ -4540,7 +4559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10">
       <c r="A130" s="2">
         <v>38929</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10">
       <c r="A131" s="2">
         <v>38898</v>
       </c>
@@ -4604,7 +4623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10">
       <c r="A132" s="2">
         <v>38868</v>
       </c>
@@ -4636,7 +4655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10">
       <c r="A133" s="2">
         <v>38835</v>
       </c>
@@ -4668,7 +4687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10">
       <c r="A134" s="2">
         <v>38807</v>
       </c>
@@ -4700,7 +4719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10">
       <c r="A135" s="2">
         <v>38776</v>
       </c>
@@ -4732,7 +4751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10">
       <c r="A136" s="2">
         <v>38742</v>
       </c>
@@ -4764,7 +4783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10">
       <c r="A137" s="2">
         <v>38716</v>
       </c>
@@ -4796,7 +4815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10">
       <c r="A138" s="2">
         <v>38686</v>
       </c>
@@ -4828,7 +4847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10">
       <c r="A139" s="2">
         <v>38656</v>
       </c>
@@ -4860,7 +4879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10">
       <c r="A140" s="2">
         <v>38625</v>
       </c>
@@ -4892,7 +4911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10">
       <c r="A141" s="2">
         <v>38595</v>
       </c>
@@ -4924,7 +4943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10">
       <c r="A142" s="2">
         <v>38562</v>
       </c>
@@ -4956,7 +4975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10">
       <c r="A143" s="2">
         <v>38533</v>
       </c>
@@ -4988,7 +5007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10">
       <c r="A144" s="2">
         <v>38503</v>
       </c>
@@ -5020,7 +5039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10">
       <c r="A145" s="2">
         <v>38471</v>
       </c>
@@ -5052,7 +5071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10">
       <c r="A146" s="2">
         <v>38442</v>
       </c>
@@ -5084,7 +5103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <v>38411</v>
       </c>
@@ -5116,7 +5135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10">
       <c r="A148" s="2">
         <v>38383</v>
       </c>
@@ -5148,7 +5167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10">
       <c r="A149" s="2">
         <v>38352</v>
       </c>
@@ -5180,7 +5199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10">
       <c r="A150" s="2">
         <v>38321</v>
       </c>
@@ -5212,7 +5231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10">
       <c r="A151" s="2">
         <v>38289</v>
       </c>
@@ -5244,7 +5263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10">
       <c r="A152" s="2">
         <v>38260</v>
       </c>
@@ -5276,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10">
       <c r="A153" s="2">
         <v>38230</v>
       </c>
@@ -5308,7 +5327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10">
       <c r="A154" s="2">
         <v>38198</v>
       </c>
@@ -5340,7 +5359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10">
       <c r="A155" s="2">
         <v>38168</v>
       </c>
@@ -5372,7 +5391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10">
       <c r="A156" s="2">
         <v>38138</v>
       </c>
@@ -5404,7 +5423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10">
       <c r="A157" s="2">
         <v>38107</v>
       </c>
@@ -5436,7 +5455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10">
       <c r="A158" s="2">
         <v>38077</v>
       </c>
@@ -5468,7 +5487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10">
       <c r="A159" s="2">
         <v>38044</v>
       </c>
@@ -5500,7 +5519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10">
       <c r="A160" s="2">
         <v>38016</v>
       </c>
@@ -5532,7 +5551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10">
       <c r="A161" s="2">
         <v>37986</v>
       </c>
@@ -5564,7 +5583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10">
       <c r="A162" s="2">
         <v>37953</v>
       </c>
@@ -5596,7 +5615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10">
       <c r="A163" s="2">
         <v>37925</v>
       </c>
@@ -5628,7 +5647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10">
       <c r="A164" s="2">
         <v>37894</v>
       </c>
@@ -5660,7 +5679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10">
       <c r="A165" s="2">
         <v>37862</v>
       </c>
@@ -5692,7 +5711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10">
       <c r="A166" s="2">
         <v>37833</v>
       </c>
@@ -5724,7 +5743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10">
       <c r="A167" s="2">
         <v>37802</v>
       </c>
@@ -5756,7 +5775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10">
       <c r="A168" s="2">
         <v>37771</v>
       </c>
@@ -5788,7 +5807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10">
       <c r="A169" s="2">
         <v>37741</v>
       </c>
@@ -5820,7 +5839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10">
       <c r="A170" s="2">
         <v>37711</v>
       </c>
@@ -5852,7 +5871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10">
       <c r="A171" s="2">
         <v>37680</v>
       </c>
@@ -5884,7 +5903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10">
       <c r="A172" s="2">
         <v>37650</v>
       </c>
@@ -5916,7 +5935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10">
       <c r="A173" s="2">
         <v>37621</v>
       </c>
@@ -5948,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10">
       <c r="A174" s="2">
         <v>37589</v>
       </c>
@@ -5980,7 +5999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10">
       <c r="A175" s="2">
         <v>37560</v>
       </c>
@@ -6012,7 +6031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10">
       <c r="A176" s="2">
         <v>37526</v>
       </c>
@@ -6044,7 +6063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10">
       <c r="A177" s="2">
         <v>37498</v>
       </c>
@@ -6076,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10">
       <c r="A178" s="2">
         <v>37468</v>
       </c>
@@ -6108,7 +6127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10">
       <c r="A179" s="2">
         <v>37435</v>
       </c>
@@ -6140,7 +6159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10">
       <c r="A180" s="2">
         <v>37407</v>
       </c>
@@ -6172,7 +6191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10">
       <c r="A181" s="2">
         <v>37376</v>
       </c>
@@ -6204,7 +6223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10">
       <c r="A182" s="2">
         <v>37344</v>
       </c>
@@ -6236,7 +6255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10">
       <c r="A183" s="2">
         <v>37315</v>
       </c>
@@ -6268,7 +6287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10">
       <c r="A184" s="2">
         <v>37287</v>
       </c>
@@ -6300,7 +6319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10">
       <c r="A185" s="2">
         <v>37256</v>
       </c>
@@ -6332,7 +6351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10">
       <c r="A186" s="2">
         <v>37225</v>
       </c>
@@ -6364,7 +6383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10">
       <c r="A187" s="2">
         <v>37195</v>
       </c>
@@ -6396,7 +6415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10">
       <c r="A188" s="2">
         <v>37162</v>
       </c>
@@ -6428,7 +6447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10">
       <c r="A189" s="2">
         <v>37134</v>
       </c>
@@ -6460,7 +6479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10">
       <c r="A190" s="2">
         <v>37103</v>
       </c>
@@ -6492,7 +6511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10">
       <c r="A191" s="2">
         <v>37071</v>
       </c>
@@ -6524,7 +6543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10">
       <c r="A192" s="2">
         <v>37042</v>
       </c>
@@ -6556,7 +6575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10">
       <c r="A193" s="2">
         <v>37011</v>
       </c>
@@ -6588,7 +6607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10">
       <c r="A194" s="2">
         <v>36980</v>
       </c>
@@ -6620,7 +6639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10">
       <c r="A195" s="2">
         <v>36950</v>
       </c>
@@ -6652,7 +6671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10">
       <c r="A196" s="2">
         <v>36910</v>
       </c>
@@ -6684,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10">
       <c r="A197" s="2">
         <v>36889</v>
       </c>
@@ -6716,7 +6735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10">
       <c r="A198" s="2">
         <v>36860</v>
       </c>
@@ -6748,7 +6767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10">
       <c r="A199" s="2">
         <v>36830</v>
       </c>
@@ -6780,7 +6799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10">
       <c r="A200" s="2">
         <v>36798</v>
       </c>
@@ -6812,7 +6831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10">
       <c r="A201" s="2">
         <v>36769</v>
       </c>
@@ -6844,7 +6863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10">
       <c r="A202" s="2">
         <v>36738</v>
       </c>
@@ -6876,7 +6895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10">
       <c r="A203" s="2">
         <v>36707</v>
       </c>
@@ -6908,7 +6927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10">
       <c r="A204" s="2">
         <v>36677</v>
       </c>
@@ -6940,7 +6959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10">
       <c r="A205" s="2">
         <v>36644</v>
       </c>
@@ -6972,7 +6991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10">
       <c r="A206" s="2">
         <v>36616</v>
       </c>
@@ -7002,6 +7021,5941 @@
       </c>
       <c r="J206" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16697324-2B18-43AC-B17A-7E1A8B2D8353}">
+  <dimension ref="A1:I204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>42934</v>
+      </c>
+      <c r="B2">
+        <v>3192</v>
+      </c>
+      <c r="C2">
+        <v>3187.57</v>
+      </c>
+      <c r="D2">
+        <v>3139.5</v>
+      </c>
+      <c r="E2">
+        <v>3230.35</v>
+      </c>
+      <c r="F2">
+        <v>2168166912</v>
+      </c>
+      <c r="G2">
+        <v>238209232</v>
+      </c>
+      <c r="H2">
+        <v>2.41E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>42916</v>
+      </c>
+      <c r="B3">
+        <v>3108.42</v>
+      </c>
+      <c r="C3">
+        <v>3192.43</v>
+      </c>
+      <c r="D3">
+        <v>3078.79</v>
+      </c>
+      <c r="E3">
+        <v>3193.46</v>
+      </c>
+      <c r="F3">
+        <v>3204652288</v>
+      </c>
+      <c r="G3">
+        <v>365866528</v>
+      </c>
+      <c r="H3">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>42886</v>
+      </c>
+      <c r="B4">
+        <v>3147.23</v>
+      </c>
+      <c r="C4">
+        <v>3117.18</v>
+      </c>
+      <c r="D4">
+        <v>3016.53</v>
+      </c>
+      <c r="E4">
+        <v>3154.78</v>
+      </c>
+      <c r="F4">
+        <v>3228021248</v>
+      </c>
+      <c r="G4">
+        <v>360604512</v>
+      </c>
+      <c r="H4">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>42853</v>
+      </c>
+      <c r="B5">
+        <v>3235.66</v>
+      </c>
+      <c r="C5">
+        <v>3154.66</v>
+      </c>
+      <c r="D5">
+        <v>3097.33</v>
+      </c>
+      <c r="E5">
+        <v>3295.19</v>
+      </c>
+      <c r="F5">
+        <v>3783533312</v>
+      </c>
+      <c r="G5">
+        <v>421736704</v>
+      </c>
+      <c r="H5">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>42825</v>
+      </c>
+      <c r="B6">
+        <v>3240.07</v>
+      </c>
+      <c r="C6">
+        <v>3221.63</v>
+      </c>
+      <c r="D6">
+        <v>3193.16</v>
+      </c>
+      <c r="E6">
+        <v>3283.24</v>
+      </c>
+      <c r="F6">
+        <v>4115865344</v>
+      </c>
+      <c r="G6">
+        <v>508601760</v>
+      </c>
+      <c r="H6">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>42794</v>
+      </c>
+      <c r="B7">
+        <v>3160.08</v>
+      </c>
+      <c r="C7">
+        <v>3241.73</v>
+      </c>
+      <c r="D7">
+        <v>3132.03</v>
+      </c>
+      <c r="E7">
+        <v>3264.08</v>
+      </c>
+      <c r="F7">
+        <v>3398041856</v>
+      </c>
+      <c r="G7">
+        <v>377725728</v>
+      </c>
+      <c r="H7">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>42761</v>
+      </c>
+      <c r="B8">
+        <v>3105.31</v>
+      </c>
+      <c r="C8">
+        <v>3159.17</v>
+      </c>
+      <c r="D8">
+        <v>3044.29</v>
+      </c>
+      <c r="E8">
+        <v>3174.58</v>
+      </c>
+      <c r="F8">
+        <v>2759490560</v>
+      </c>
+      <c r="G8">
+        <v>305277184</v>
+      </c>
+      <c r="H8">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>42734</v>
+      </c>
+      <c r="B9">
+        <v>3257.03</v>
+      </c>
+      <c r="C9">
+        <v>3103.64</v>
+      </c>
+      <c r="D9">
+        <v>3068.42</v>
+      </c>
+      <c r="E9">
+        <v>3279.71</v>
+      </c>
+      <c r="F9">
+        <v>3965931264</v>
+      </c>
+      <c r="G9">
+        <v>440621792</v>
+      </c>
+      <c r="H9">
+        <v>4.82E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>42704</v>
+      </c>
+      <c r="B10">
+        <v>3101.66</v>
+      </c>
+      <c r="C10">
+        <v>3250.03</v>
+      </c>
+      <c r="D10">
+        <v>3094.1</v>
+      </c>
+      <c r="E10">
+        <v>3301.21</v>
+      </c>
+      <c r="F10">
+        <v>5200799232</v>
+      </c>
+      <c r="G10">
+        <v>585388160</v>
+      </c>
+      <c r="H10">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>42674</v>
+      </c>
+      <c r="B11">
+        <v>3020.46</v>
+      </c>
+      <c r="C11">
+        <v>3100.49</v>
+      </c>
+      <c r="D11">
+        <v>3014.62</v>
+      </c>
+      <c r="E11">
+        <v>3137.03</v>
+      </c>
+      <c r="F11">
+        <v>2783130112</v>
+      </c>
+      <c r="G11">
+        <v>306340224</v>
+      </c>
+      <c r="H11">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>42643</v>
+      </c>
+      <c r="B12">
+        <v>3083.96</v>
+      </c>
+      <c r="C12">
+        <v>3004.7</v>
+      </c>
+      <c r="D12">
+        <v>2969.13</v>
+      </c>
+      <c r="E12">
+        <v>3105.68</v>
+      </c>
+      <c r="F12">
+        <v>2795832320</v>
+      </c>
+      <c r="G12">
+        <v>314090048</v>
+      </c>
+      <c r="H12">
+        <v>3.56E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>42613</v>
+      </c>
+      <c r="B13">
+        <v>2971.95</v>
+      </c>
+      <c r="C13">
+        <v>3085.49</v>
+      </c>
+      <c r="D13">
+        <v>2931.96</v>
+      </c>
+      <c r="E13">
+        <v>3140.44</v>
+      </c>
+      <c r="F13">
+        <v>3956218368</v>
+      </c>
+      <c r="G13">
+        <v>444990816</v>
+      </c>
+      <c r="H13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>42580</v>
+      </c>
+      <c r="B14">
+        <v>2931.8</v>
+      </c>
+      <c r="C14">
+        <v>2979.34</v>
+      </c>
+      <c r="D14">
+        <v>2922.52</v>
+      </c>
+      <c r="E14">
+        <v>3069.05</v>
+      </c>
+      <c r="F14">
+        <v>4011659008</v>
+      </c>
+      <c r="G14">
+        <v>470332256</v>
+      </c>
+      <c r="H14">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>42551</v>
+      </c>
+      <c r="B15">
+        <v>2917.15</v>
+      </c>
+      <c r="C15">
+        <v>2929.61</v>
+      </c>
+      <c r="D15">
+        <v>2807.6</v>
+      </c>
+      <c r="E15">
+        <v>2945.94</v>
+      </c>
+      <c r="F15">
+        <v>3175938816</v>
+      </c>
+      <c r="G15">
+        <v>377000320</v>
+      </c>
+      <c r="H15">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>42521</v>
+      </c>
+      <c r="B16">
+        <v>2940.39</v>
+      </c>
+      <c r="C16">
+        <v>2916.62</v>
+      </c>
+      <c r="D16">
+        <v>2780.76</v>
+      </c>
+      <c r="E16">
+        <v>3004.42</v>
+      </c>
+      <c r="F16">
+        <v>2853848320</v>
+      </c>
+      <c r="G16">
+        <v>315593088</v>
+      </c>
+      <c r="H16">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>42489</v>
+      </c>
+      <c r="B17">
+        <v>2997.09</v>
+      </c>
+      <c r="C17">
+        <v>2938.32</v>
+      </c>
+      <c r="D17">
+        <v>2905.05</v>
+      </c>
+      <c r="E17">
+        <v>3097.16</v>
+      </c>
+      <c r="F17">
+        <v>3786963456</v>
+      </c>
+      <c r="G17">
+        <v>421474336</v>
+      </c>
+      <c r="H17">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>42460</v>
+      </c>
+      <c r="B18">
+        <v>2688.38</v>
+      </c>
+      <c r="C18">
+        <v>3003.92</v>
+      </c>
+      <c r="D18">
+        <v>2668.76</v>
+      </c>
+      <c r="E18">
+        <v>3028.32</v>
+      </c>
+      <c r="F18">
+        <v>5084600320</v>
+      </c>
+      <c r="G18">
+        <v>534252832</v>
+      </c>
+      <c r="H18">
+        <v>-4.7800000000000002E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6">
+        <v>42277</v>
+      </c>
+      <c r="B19">
+        <v>3157.83</v>
+      </c>
+      <c r="C19">
+        <v>3052.78</v>
+      </c>
+      <c r="D19">
+        <v>2983.54</v>
+      </c>
+      <c r="E19">
+        <v>3256.74</v>
+      </c>
+      <c r="F19">
+        <v>5362512896</v>
+      </c>
+      <c r="G19">
+        <v>562637184</v>
+      </c>
+      <c r="H19">
+        <v>-0.1249</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6">
+        <v>42247</v>
+      </c>
+      <c r="B20">
+        <v>3614.99</v>
+      </c>
+      <c r="C20">
+        <v>3205.99</v>
+      </c>
+      <c r="D20">
+        <v>2850.71</v>
+      </c>
+      <c r="E20">
+        <v>4006.34</v>
+      </c>
+      <c r="F20">
+        <v>8719258624</v>
+      </c>
+      <c r="G20">
+        <v>1077444480</v>
+      </c>
+      <c r="H20">
+        <v>-0.1434</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6">
+        <v>42216</v>
+      </c>
+      <c r="B21">
+        <v>4214.1499999999996</v>
+      </c>
+      <c r="C21">
+        <v>3663.73</v>
+      </c>
+      <c r="D21">
+        <v>3373.54</v>
+      </c>
+      <c r="E21">
+        <v>4317.05</v>
+      </c>
+      <c r="F21">
+        <v>13193595904</v>
+      </c>
+      <c r="G21">
+        <v>1611194112</v>
+      </c>
+      <c r="H21">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6">
+        <v>42185</v>
+      </c>
+      <c r="B22">
+        <v>4633.1000000000004</v>
+      </c>
+      <c r="C22">
+        <v>4277.22</v>
+      </c>
+      <c r="D22">
+        <v>3847.88</v>
+      </c>
+      <c r="E22">
+        <v>5178.1899999999996</v>
+      </c>
+      <c r="F22">
+        <v>12870644736</v>
+      </c>
+      <c r="G22">
+        <v>1999962624</v>
+      </c>
+      <c r="H22">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6">
+        <v>42153</v>
+      </c>
+      <c r="B23">
+        <v>4441.34</v>
+      </c>
+      <c r="C23">
+        <v>4611.74</v>
+      </c>
+      <c r="D23">
+        <v>4099.04</v>
+      </c>
+      <c r="E23">
+        <v>4986.5</v>
+      </c>
+      <c r="F23">
+        <v>10664884224</v>
+      </c>
+      <c r="G23">
+        <v>1633287552</v>
+      </c>
+      <c r="H23">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6">
+        <v>42124</v>
+      </c>
+      <c r="B24">
+        <v>3748.34</v>
+      </c>
+      <c r="C24">
+        <v>4441.6499999999996</v>
+      </c>
+      <c r="D24">
+        <v>3742.21</v>
+      </c>
+      <c r="E24">
+        <v>4572.3900000000003</v>
+      </c>
+      <c r="F24">
+        <v>12677372928</v>
+      </c>
+      <c r="G24">
+        <v>1721043840</v>
+      </c>
+      <c r="H24">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6">
+        <v>42094</v>
+      </c>
+      <c r="B25">
+        <v>3332.72</v>
+      </c>
+      <c r="C25">
+        <v>3747.9</v>
+      </c>
+      <c r="D25">
+        <v>3198.37</v>
+      </c>
+      <c r="E25">
+        <v>3835.57</v>
+      </c>
+      <c r="F25">
+        <v>9442485248</v>
+      </c>
+      <c r="G25">
+        <v>1126569472</v>
+      </c>
+      <c r="H25">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6">
+        <v>42062</v>
+      </c>
+      <c r="B26">
+        <v>3148.14</v>
+      </c>
+      <c r="C26">
+        <v>3310.3</v>
+      </c>
+      <c r="D26">
+        <v>3049.11</v>
+      </c>
+      <c r="E26">
+        <v>3324.55</v>
+      </c>
+      <c r="F26">
+        <v>3615595008</v>
+      </c>
+      <c r="G26">
+        <v>411830848</v>
+      </c>
+      <c r="H26">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>42034</v>
+      </c>
+      <c r="B27">
+        <v>3258.63</v>
+      </c>
+      <c r="C27">
+        <v>3210.36</v>
+      </c>
+      <c r="D27">
+        <v>3095.07</v>
+      </c>
+      <c r="E27">
+        <v>3406.79</v>
+      </c>
+      <c r="F27">
+        <v>7037433856</v>
+      </c>
+      <c r="G27">
+        <v>783415872</v>
+      </c>
+      <c r="H27">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>42004</v>
+      </c>
+      <c r="B28">
+        <v>2691.73</v>
+      </c>
+      <c r="C28">
+        <v>3234.68</v>
+      </c>
+      <c r="D28">
+        <v>2665.69</v>
+      </c>
+      <c r="E28">
+        <v>3239.36</v>
+      </c>
+      <c r="F28">
+        <v>11383523328</v>
+      </c>
+      <c r="G28">
+        <v>1148132992</v>
+      </c>
+      <c r="H28">
+        <v>0.1085</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>41971</v>
+      </c>
+      <c r="B29">
+        <v>2425.23</v>
+      </c>
+      <c r="C29">
+        <v>2682.83</v>
+      </c>
+      <c r="D29">
+        <v>2401.75</v>
+      </c>
+      <c r="E29">
+        <v>2683.18</v>
+      </c>
+      <c r="F29">
+        <v>5691334144</v>
+      </c>
+      <c r="G29">
+        <v>488132512</v>
+      </c>
+      <c r="H29">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>41943</v>
+      </c>
+      <c r="B30">
+        <v>2368.58</v>
+      </c>
+      <c r="C30">
+        <v>2420.1799999999998</v>
+      </c>
+      <c r="D30">
+        <v>2279.84</v>
+      </c>
+      <c r="E30">
+        <v>2423.6</v>
+      </c>
+      <c r="F30">
+        <v>3697286912</v>
+      </c>
+      <c r="G30">
+        <v>312862848</v>
+      </c>
+      <c r="H30">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
+        <v>41912</v>
+      </c>
+      <c r="B31">
+        <v>2220.13</v>
+      </c>
+      <c r="C31">
+        <v>2363.87</v>
+      </c>
+      <c r="D31">
+        <v>2217.69</v>
+      </c>
+      <c r="E31">
+        <v>2365.4899999999998</v>
+      </c>
+      <c r="F31">
+        <v>4191031040</v>
+      </c>
+      <c r="G31">
+        <v>355214368</v>
+      </c>
+      <c r="H31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>41880</v>
+      </c>
+      <c r="B32">
+        <v>2194.17</v>
+      </c>
+      <c r="C32">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="D32">
+        <v>2180.6</v>
+      </c>
+      <c r="E32">
+        <v>2248.94</v>
+      </c>
+      <c r="F32">
+        <v>3343780096</v>
+      </c>
+      <c r="G32">
+        <v>278971424</v>
+      </c>
+      <c r="H32">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>41851</v>
+      </c>
+      <c r="B33">
+        <v>2051.23</v>
+      </c>
+      <c r="C33">
+        <v>2201.56</v>
+      </c>
+      <c r="D33">
+        <v>2033</v>
+      </c>
+      <c r="E33">
+        <v>2202.13</v>
+      </c>
+      <c r="F33">
+        <v>2980954880</v>
+      </c>
+      <c r="G33">
+        <v>238962480</v>
+      </c>
+      <c r="H33">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="6">
+        <v>41820</v>
+      </c>
+      <c r="B34">
+        <v>2039.2</v>
+      </c>
+      <c r="C34">
+        <v>2048.33</v>
+      </c>
+      <c r="D34">
+        <v>2010.53</v>
+      </c>
+      <c r="E34">
+        <v>2087.3200000000002</v>
+      </c>
+      <c r="F34">
+        <v>1591231488</v>
+      </c>
+      <c r="G34">
+        <v>131174640</v>
+      </c>
+      <c r="H34">
+        <v>6.3E-3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="6">
+        <v>41789</v>
+      </c>
+      <c r="B35">
+        <v>2022.18</v>
+      </c>
+      <c r="C35">
+        <v>2039.21</v>
+      </c>
+      <c r="D35">
+        <v>1991.06</v>
+      </c>
+      <c r="E35">
+        <v>2061.06</v>
+      </c>
+      <c r="F35">
+        <v>1512460416</v>
+      </c>
+      <c r="G35">
+        <v>120002304</v>
+      </c>
+      <c r="H35">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6">
+        <v>41759</v>
+      </c>
+      <c r="B36">
+        <v>2031.01</v>
+      </c>
+      <c r="C36">
+        <v>2026.36</v>
+      </c>
+      <c r="D36">
+        <v>1997.64</v>
+      </c>
+      <c r="E36">
+        <v>2146.67</v>
+      </c>
+      <c r="F36">
+        <v>2067447808</v>
+      </c>
+      <c r="G36">
+        <v>167659232</v>
+      </c>
+      <c r="H36">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6">
+        <v>41729</v>
+      </c>
+      <c r="B37">
+        <v>2052.0700000000002</v>
+      </c>
+      <c r="C37">
+        <v>2033.31</v>
+      </c>
+      <c r="D37">
+        <v>1974.38</v>
+      </c>
+      <c r="E37">
+        <v>2079.5500000000002</v>
+      </c>
+      <c r="F37">
+        <v>2312976640</v>
+      </c>
+      <c r="G37">
+        <v>186352944</v>
+      </c>
+      <c r="H37">
+        <v>1.14E-2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="6">
+        <v>41698</v>
+      </c>
+      <c r="B38">
+        <v>2022.32</v>
+      </c>
+      <c r="C38">
+        <v>2056.3000000000002</v>
+      </c>
+      <c r="D38">
+        <v>2014.38</v>
+      </c>
+      <c r="E38">
+        <v>2177.98</v>
+      </c>
+      <c r="F38">
+        <v>2051218304</v>
+      </c>
+      <c r="G38">
+        <v>179237616</v>
+      </c>
+      <c r="H38">
+        <v>-3.9199999999999999E-2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="6">
+        <v>41669</v>
+      </c>
+      <c r="B39">
+        <v>2112.13</v>
+      </c>
+      <c r="C39">
+        <v>2033.08</v>
+      </c>
+      <c r="D39">
+        <v>1984.82</v>
+      </c>
+      <c r="E39">
+        <v>2113.11</v>
+      </c>
+      <c r="F39">
+        <v>1563580288</v>
+      </c>
+      <c r="G39">
+        <v>135983056</v>
+      </c>
+      <c r="H39">
+        <v>-4.7100000000000003E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="6">
+        <v>41639</v>
+      </c>
+      <c r="B40">
+        <v>2203.12</v>
+      </c>
+      <c r="C40">
+        <v>2115.98</v>
+      </c>
+      <c r="D40">
+        <v>2068.54</v>
+      </c>
+      <c r="E40">
+        <v>2260.87</v>
+      </c>
+      <c r="F40">
+        <v>2071264000</v>
+      </c>
+      <c r="G40">
+        <v>179770832</v>
+      </c>
+      <c r="H40">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6">
+        <v>41607</v>
+      </c>
+      <c r="B41">
+        <v>2139.88</v>
+      </c>
+      <c r="C41">
+        <v>2220.5</v>
+      </c>
+      <c r="D41">
+        <v>2078.9899999999998</v>
+      </c>
+      <c r="E41">
+        <v>2234.39</v>
+      </c>
+      <c r="F41">
+        <v>2187871744</v>
+      </c>
+      <c r="G41">
+        <v>192169728</v>
+      </c>
+      <c r="H41">
+        <v>-1.52E-2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="6">
+        <v>41578</v>
+      </c>
+      <c r="B42">
+        <v>2171.9</v>
+      </c>
+      <c r="C42">
+        <v>2141.61</v>
+      </c>
+      <c r="D42">
+        <v>2093.1999999999998</v>
+      </c>
+      <c r="E42">
+        <v>2242.98</v>
+      </c>
+      <c r="F42">
+        <v>2377395712</v>
+      </c>
+      <c r="G42">
+        <v>209759664</v>
+      </c>
+      <c r="H42">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="6">
+        <v>41547</v>
+      </c>
+      <c r="B43">
+        <v>2104.09</v>
+      </c>
+      <c r="C43">
+        <v>2174.67</v>
+      </c>
+      <c r="D43">
+        <v>2078.46</v>
+      </c>
+      <c r="E43">
+        <v>2270.27</v>
+      </c>
+      <c r="F43">
+        <v>2999507712</v>
+      </c>
+      <c r="G43">
+        <v>253661440</v>
+      </c>
+      <c r="H43">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6">
+        <v>41516</v>
+      </c>
+      <c r="B44">
+        <v>2000.82</v>
+      </c>
+      <c r="C44">
+        <v>2098.38</v>
+      </c>
+      <c r="D44">
+        <v>1997.06</v>
+      </c>
+      <c r="E44">
+        <v>2198.85</v>
+      </c>
+      <c r="F44">
+        <v>2489486080</v>
+      </c>
+      <c r="G44">
+        <v>206846608</v>
+      </c>
+      <c r="H44">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="6">
+        <v>41486</v>
+      </c>
+      <c r="B45">
+        <v>1965.99</v>
+      </c>
+      <c r="C45">
+        <v>1993.8</v>
+      </c>
+      <c r="D45">
+        <v>1946.37</v>
+      </c>
+      <c r="E45">
+        <v>2092.87</v>
+      </c>
+      <c r="F45">
+        <v>2164964352</v>
+      </c>
+      <c r="G45">
+        <v>181969552</v>
+      </c>
+      <c r="H45">
+        <v>-0.13969999999999999</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="6">
+        <v>41453</v>
+      </c>
+      <c r="B46">
+        <v>2300.21</v>
+      </c>
+      <c r="C46">
+        <v>1979.21</v>
+      </c>
+      <c r="D46">
+        <v>1849.65</v>
+      </c>
+      <c r="E46">
+        <v>2313.4299999999998</v>
+      </c>
+      <c r="F46">
+        <v>1552384000</v>
+      </c>
+      <c r="G46">
+        <v>133003912</v>
+      </c>
+      <c r="H46">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="6">
+        <v>41425</v>
+      </c>
+      <c r="B47">
+        <v>2170.7800000000002</v>
+      </c>
+      <c r="C47">
+        <v>2300.59</v>
+      </c>
+      <c r="D47">
+        <v>2161.14</v>
+      </c>
+      <c r="E47">
+        <v>2334.33</v>
+      </c>
+      <c r="F47">
+        <v>2054941568</v>
+      </c>
+      <c r="G47">
+        <v>186650544</v>
+      </c>
+      <c r="H47">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6">
+        <v>41390</v>
+      </c>
+      <c r="B48">
+        <v>2229.46</v>
+      </c>
+      <c r="C48">
+        <v>2177.91</v>
+      </c>
+      <c r="D48">
+        <v>2165.7800000000002</v>
+      </c>
+      <c r="E48">
+        <v>2253.42</v>
+      </c>
+      <c r="F48">
+        <v>1497143680</v>
+      </c>
+      <c r="G48">
+        <v>128516672</v>
+      </c>
+      <c r="H48">
+        <v>-5.45E-2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6">
+        <v>41362</v>
+      </c>
+      <c r="B49">
+        <v>2364.54</v>
+      </c>
+      <c r="C49">
+        <v>2236.62</v>
+      </c>
+      <c r="D49">
+        <v>2228.81</v>
+      </c>
+      <c r="E49">
+        <v>2369.65</v>
+      </c>
+      <c r="F49">
+        <v>2325954816</v>
+      </c>
+      <c r="G49">
+        <v>203983088</v>
+      </c>
+      <c r="H49">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6">
+        <v>41333</v>
+      </c>
+      <c r="B50">
+        <v>2377.41</v>
+      </c>
+      <c r="C50">
+        <v>2365.59</v>
+      </c>
+      <c r="D50">
+        <v>2289.89</v>
+      </c>
+      <c r="E50">
+        <v>2444.8000000000002</v>
+      </c>
+      <c r="F50">
+        <v>1826534656</v>
+      </c>
+      <c r="G50">
+        <v>162722736</v>
+      </c>
+      <c r="H50">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6">
+        <v>41305</v>
+      </c>
+      <c r="B51">
+        <v>2289.5100000000002</v>
+      </c>
+      <c r="C51">
+        <v>2385.42</v>
+      </c>
+      <c r="D51">
+        <v>2234.9499999999998</v>
+      </c>
+      <c r="E51">
+        <v>2391.8200000000002</v>
+      </c>
+      <c r="F51">
+        <v>2671926016</v>
+      </c>
+      <c r="G51">
+        <v>225899056</v>
+      </c>
+      <c r="H51">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6">
+        <v>41274</v>
+      </c>
+      <c r="B52">
+        <v>1977.25</v>
+      </c>
+      <c r="C52">
+        <v>2269.13</v>
+      </c>
+      <c r="D52">
+        <v>1949.46</v>
+      </c>
+      <c r="E52">
+        <v>2269.5100000000002</v>
+      </c>
+      <c r="F52">
+        <v>2245206528</v>
+      </c>
+      <c r="G52">
+        <v>171652224</v>
+      </c>
+      <c r="H52">
+        <v>-4.2900000000000001E-2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6">
+        <v>41243</v>
+      </c>
+      <c r="B53">
+        <v>2070.02</v>
+      </c>
+      <c r="C53">
+        <v>1980.12</v>
+      </c>
+      <c r="D53">
+        <v>1959.33</v>
+      </c>
+      <c r="E53">
+        <v>2123.33</v>
+      </c>
+      <c r="F53">
+        <v>1245203456</v>
+      </c>
+      <c r="G53">
+        <v>91611792</v>
+      </c>
+      <c r="H53">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6">
+        <v>41213</v>
+      </c>
+      <c r="B54">
+        <v>2084.85</v>
+      </c>
+      <c r="C54">
+        <v>2068.88</v>
+      </c>
+      <c r="D54">
+        <v>2053.09</v>
+      </c>
+      <c r="E54">
+        <v>2138.0300000000002</v>
+      </c>
+      <c r="F54">
+        <v>1231251584</v>
+      </c>
+      <c r="G54">
+        <v>92018216</v>
+      </c>
+      <c r="H54">
+        <v>1.89E-2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6">
+        <v>41180</v>
+      </c>
+      <c r="B55">
+        <v>2044.82</v>
+      </c>
+      <c r="C55">
+        <v>2086.17</v>
+      </c>
+      <c r="D55">
+        <v>1999.48</v>
+      </c>
+      <c r="E55">
+        <v>2145</v>
+      </c>
+      <c r="F55">
+        <v>1432787840</v>
+      </c>
+      <c r="G55">
+        <v>115491456</v>
+      </c>
+      <c r="H55">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6">
+        <v>41152</v>
+      </c>
+      <c r="B56">
+        <v>2101.7199999999998</v>
+      </c>
+      <c r="C56">
+        <v>2047.52</v>
+      </c>
+      <c r="D56">
+        <v>2032.54</v>
+      </c>
+      <c r="E56">
+        <v>2176.79</v>
+      </c>
+      <c r="F56">
+        <v>1364021888</v>
+      </c>
+      <c r="G56">
+        <v>114576984</v>
+      </c>
+      <c r="H56">
+        <v>-5.4699999999999999E-2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6">
+        <v>41121</v>
+      </c>
+      <c r="B57">
+        <v>2234.3200000000002</v>
+      </c>
+      <c r="C57">
+        <v>2103.63</v>
+      </c>
+      <c r="D57">
+        <v>2100.25</v>
+      </c>
+      <c r="E57">
+        <v>2244.83</v>
+      </c>
+      <c r="F57">
+        <v>1349082496</v>
+      </c>
+      <c r="G57">
+        <v>121815472</v>
+      </c>
+      <c r="H57">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6">
+        <v>41089</v>
+      </c>
+      <c r="B58">
+        <v>2373.2199999999998</v>
+      </c>
+      <c r="C58">
+        <v>2225.4299999999998</v>
+      </c>
+      <c r="D58">
+        <v>2188.7199999999998</v>
+      </c>
+      <c r="E58">
+        <v>2388.09</v>
+      </c>
+      <c r="F58">
+        <v>1276093568</v>
+      </c>
+      <c r="G58">
+        <v>121327112</v>
+      </c>
+      <c r="H58">
+        <v>-0.01</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6">
+        <v>41060</v>
+      </c>
+      <c r="B59">
+        <v>2421.08</v>
+      </c>
+      <c r="C59">
+        <v>2372.23</v>
+      </c>
+      <c r="D59">
+        <v>2309.0700000000002</v>
+      </c>
+      <c r="E59">
+        <v>2453.73</v>
+      </c>
+      <c r="F59">
+        <v>1991234816</v>
+      </c>
+      <c r="G59">
+        <v>193608224</v>
+      </c>
+      <c r="H59">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6">
+        <v>41026</v>
+      </c>
+      <c r="B60">
+        <v>2258.0300000000002</v>
+      </c>
+      <c r="C60">
+        <v>2396.3200000000002</v>
+      </c>
+      <c r="D60">
+        <v>2251.39</v>
+      </c>
+      <c r="E60">
+        <v>2415.75</v>
+      </c>
+      <c r="F60">
+        <v>1633715328</v>
+      </c>
+      <c r="G60">
+        <v>146877936</v>
+      </c>
+      <c r="H60">
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6">
+        <v>40998</v>
+      </c>
+      <c r="B61">
+        <v>2418.79</v>
+      </c>
+      <c r="C61">
+        <v>2262.79</v>
+      </c>
+      <c r="D61">
+        <v>2242.34</v>
+      </c>
+      <c r="E61">
+        <v>2476.2199999999998</v>
+      </c>
+      <c r="F61">
+        <v>2089452160</v>
+      </c>
+      <c r="G61">
+        <v>202250688</v>
+      </c>
+      <c r="H61">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6">
+        <v>40968</v>
+      </c>
+      <c r="B62">
+        <v>2288.0700000000002</v>
+      </c>
+      <c r="C62">
+        <v>2428.4899999999998</v>
+      </c>
+      <c r="D62">
+        <v>2263.34</v>
+      </c>
+      <c r="E62">
+        <v>2478.38</v>
+      </c>
+      <c r="F62">
+        <v>1952283904</v>
+      </c>
+      <c r="G62">
+        <v>177172544</v>
+      </c>
+      <c r="H62">
+        <v>4.24E-2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="6">
+        <v>40939</v>
+      </c>
+      <c r="B63">
+        <v>2212</v>
+      </c>
+      <c r="C63">
+        <v>2292.61</v>
+      </c>
+      <c r="D63">
+        <v>2132.63</v>
+      </c>
+      <c r="E63">
+        <v>2324.4899999999998</v>
+      </c>
+      <c r="F63">
+        <v>1045580544</v>
+      </c>
+      <c r="G63">
+        <v>90550824</v>
+      </c>
+      <c r="H63">
+        <v>-5.74E-2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="6">
+        <v>40907</v>
+      </c>
+      <c r="B64">
+        <v>2392.4899999999998</v>
+      </c>
+      <c r="C64">
+        <v>2199.42</v>
+      </c>
+      <c r="D64">
+        <v>2134.02</v>
+      </c>
+      <c r="E64">
+        <v>2423.56</v>
+      </c>
+      <c r="F64">
+        <v>1154517888</v>
+      </c>
+      <c r="G64">
+        <v>102267328</v>
+      </c>
+      <c r="H64">
+        <v>-5.4600000000000003E-2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6">
+        <v>40877</v>
+      </c>
+      <c r="B65">
+        <v>2450.33</v>
+      </c>
+      <c r="C65">
+        <v>2333.41</v>
+      </c>
+      <c r="D65">
+        <v>2319.44</v>
+      </c>
+      <c r="E65">
+        <v>2536.7800000000002</v>
+      </c>
+      <c r="F65">
+        <v>1641719680</v>
+      </c>
+      <c r="G65">
+        <v>162332816</v>
+      </c>
+      <c r="H65">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6">
+        <v>40847</v>
+      </c>
+      <c r="B66">
+        <v>2363.08</v>
+      </c>
+      <c r="C66">
+        <v>2468.25</v>
+      </c>
+      <c r="D66">
+        <v>2307.15</v>
+      </c>
+      <c r="E66">
+        <v>2483.7600000000002</v>
+      </c>
+      <c r="F66">
+        <v>1201777280</v>
+      </c>
+      <c r="G66">
+        <v>111567008</v>
+      </c>
+      <c r="H66">
+        <v>-8.1100000000000005E-2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6">
+        <v>40816</v>
+      </c>
+      <c r="B67">
+        <v>2569.8000000000002</v>
+      </c>
+      <c r="C67">
+        <v>2359.2199999999998</v>
+      </c>
+      <c r="D67">
+        <v>2348.2199999999998</v>
+      </c>
+      <c r="E67">
+        <v>2584.8000000000002</v>
+      </c>
+      <c r="F67">
+        <v>1190284928</v>
+      </c>
+      <c r="G67">
+        <v>121064624</v>
+      </c>
+      <c r="H67">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6">
+        <v>40786</v>
+      </c>
+      <c r="B68">
+        <v>2697.57</v>
+      </c>
+      <c r="C68">
+        <v>2567.34</v>
+      </c>
+      <c r="D68">
+        <v>2437.6799999999998</v>
+      </c>
+      <c r="E68">
+        <v>2712.89</v>
+      </c>
+      <c r="F68">
+        <v>1801978624</v>
+      </c>
+      <c r="G68">
+        <v>191301360</v>
+      </c>
+      <c r="H68">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6">
+        <v>40753</v>
+      </c>
+      <c r="B69">
+        <v>2767.83</v>
+      </c>
+      <c r="C69">
+        <v>2701.73</v>
+      </c>
+      <c r="D69">
+        <v>2677.12</v>
+      </c>
+      <c r="E69">
+        <v>2826.96</v>
+      </c>
+      <c r="F69">
+        <v>1971957376</v>
+      </c>
+      <c r="G69">
+        <v>230119360</v>
+      </c>
+      <c r="H69">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6">
+        <v>40724</v>
+      </c>
+      <c r="B70">
+        <v>2737.06</v>
+      </c>
+      <c r="C70">
+        <v>2762.08</v>
+      </c>
+      <c r="D70">
+        <v>2610.9899999999998</v>
+      </c>
+      <c r="E70">
+        <v>2774.36</v>
+      </c>
+      <c r="F70">
+        <v>1626952192</v>
+      </c>
+      <c r="G70">
+        <v>185037088</v>
+      </c>
+      <c r="H70">
+        <v>-5.7700000000000001E-2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6">
+        <v>40694</v>
+      </c>
+      <c r="B71">
+        <v>2911.51</v>
+      </c>
+      <c r="C71">
+        <v>2743.47</v>
+      </c>
+      <c r="D71">
+        <v>2689.21</v>
+      </c>
+      <c r="E71">
+        <v>2933.46</v>
+      </c>
+      <c r="F71">
+        <v>1785114496</v>
+      </c>
+      <c r="G71">
+        <v>203838688</v>
+      </c>
+      <c r="H71">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6">
+        <v>40662</v>
+      </c>
+      <c r="B72">
+        <v>2932.48</v>
+      </c>
+      <c r="C72">
+        <v>2911.51</v>
+      </c>
+      <c r="D72">
+        <v>2871.01</v>
+      </c>
+      <c r="E72">
+        <v>3067.46</v>
+      </c>
+      <c r="F72">
+        <v>2309860096</v>
+      </c>
+      <c r="G72">
+        <v>272767424</v>
+      </c>
+      <c r="H72">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6">
+        <v>40633</v>
+      </c>
+      <c r="B73">
+        <v>2906.28</v>
+      </c>
+      <c r="C73">
+        <v>2928.11</v>
+      </c>
+      <c r="D73">
+        <v>2850.95</v>
+      </c>
+      <c r="E73">
+        <v>3012.04</v>
+      </c>
+      <c r="F73">
+        <v>2941033472</v>
+      </c>
+      <c r="G73">
+        <v>369712576</v>
+      </c>
+      <c r="H73">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="6">
+        <v>40602</v>
+      </c>
+      <c r="B74">
+        <v>2795.07</v>
+      </c>
+      <c r="C74">
+        <v>2905.05</v>
+      </c>
+      <c r="D74">
+        <v>2760.18</v>
+      </c>
+      <c r="E74">
+        <v>2944.41</v>
+      </c>
+      <c r="F74">
+        <v>1756491264</v>
+      </c>
+      <c r="G74">
+        <v>216362144</v>
+      </c>
+      <c r="H74">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="6">
+        <v>40574</v>
+      </c>
+      <c r="B75">
+        <v>2825.33</v>
+      </c>
+      <c r="C75">
+        <v>2790.69</v>
+      </c>
+      <c r="D75">
+        <v>2661.45</v>
+      </c>
+      <c r="E75">
+        <v>2868</v>
+      </c>
+      <c r="F75">
+        <v>1728273152</v>
+      </c>
+      <c r="G75">
+        <v>202414864</v>
+      </c>
+      <c r="H75">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="6">
+        <v>40543</v>
+      </c>
+      <c r="B76">
+        <v>2810.54</v>
+      </c>
+      <c r="C76">
+        <v>2808.08</v>
+      </c>
+      <c r="D76">
+        <v>2721.48</v>
+      </c>
+      <c r="E76">
+        <v>2939.05</v>
+      </c>
+      <c r="F76">
+        <v>2119663488</v>
+      </c>
+      <c r="G76">
+        <v>264707248</v>
+      </c>
+      <c r="H76">
+        <v>-5.33E-2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="6">
+        <v>40512</v>
+      </c>
+      <c r="B77">
+        <v>2986.89</v>
+      </c>
+      <c r="C77">
+        <v>2820.18</v>
+      </c>
+      <c r="D77">
+        <v>2758.92</v>
+      </c>
+      <c r="E77">
+        <v>3186.72</v>
+      </c>
+      <c r="F77">
+        <v>3534001920</v>
+      </c>
+      <c r="G77">
+        <v>457896992</v>
+      </c>
+      <c r="H77">
+        <v>0.1217</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="6">
+        <v>40480</v>
+      </c>
+      <c r="B78">
+        <v>2681.25</v>
+      </c>
+      <c r="C78">
+        <v>2978.83</v>
+      </c>
+      <c r="D78">
+        <v>2677.99</v>
+      </c>
+      <c r="E78">
+        <v>3073.38</v>
+      </c>
+      <c r="F78">
+        <v>2970149632</v>
+      </c>
+      <c r="G78">
+        <v>368420928</v>
+      </c>
+      <c r="H78">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="6">
+        <v>40451</v>
+      </c>
+      <c r="B79">
+        <v>2641.05</v>
+      </c>
+      <c r="C79">
+        <v>2655.66</v>
+      </c>
+      <c r="D79">
+        <v>2573.63</v>
+      </c>
+      <c r="E79">
+        <v>2704.93</v>
+      </c>
+      <c r="F79">
+        <v>2045261056</v>
+      </c>
+      <c r="G79">
+        <v>234974848</v>
+      </c>
+      <c r="H79">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="6">
+        <v>40421</v>
+      </c>
+      <c r="B80">
+        <v>2635.81</v>
+      </c>
+      <c r="C80">
+        <v>2638.8</v>
+      </c>
+      <c r="D80">
+        <v>2564.84</v>
+      </c>
+      <c r="E80">
+        <v>2701.93</v>
+      </c>
+      <c r="F80">
+        <v>2409488128</v>
+      </c>
+      <c r="G80">
+        <v>247438640</v>
+      </c>
+      <c r="H80">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="6">
+        <v>40389</v>
+      </c>
+      <c r="B81">
+        <v>2393.9499999999998</v>
+      </c>
+      <c r="C81">
+        <v>2637.5</v>
+      </c>
+      <c r="D81">
+        <v>2319.7399999999998</v>
+      </c>
+      <c r="E81">
+        <v>2656.41</v>
+      </c>
+      <c r="F81">
+        <v>1907474048</v>
+      </c>
+      <c r="G81">
+        <v>174955568</v>
+      </c>
+      <c r="H81">
+        <v>-7.4800000000000005E-2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="6">
+        <v>40359</v>
+      </c>
+      <c r="B82">
+        <v>2577.7600000000002</v>
+      </c>
+      <c r="C82">
+        <v>2398.37</v>
+      </c>
+      <c r="D82">
+        <v>2382.36</v>
+      </c>
+      <c r="E82">
+        <v>2598.9</v>
+      </c>
+      <c r="F82">
+        <v>1225701248</v>
+      </c>
+      <c r="G82">
+        <v>129572536</v>
+      </c>
+      <c r="H82">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="6">
+        <v>40329</v>
+      </c>
+      <c r="B83">
+        <v>2821.35</v>
+      </c>
+      <c r="C83">
+        <v>2592.15</v>
+      </c>
+      <c r="D83">
+        <v>2481.9699999999998</v>
+      </c>
+      <c r="E83">
+        <v>2862.55</v>
+      </c>
+      <c r="F83">
+        <v>1669948416</v>
+      </c>
+      <c r="G83">
+        <v>186442752</v>
+      </c>
+      <c r="H83">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="6">
+        <v>40298</v>
+      </c>
+      <c r="B84">
+        <v>3111.94</v>
+      </c>
+      <c r="C84">
+        <v>2870.61</v>
+      </c>
+      <c r="D84">
+        <v>2820.95</v>
+      </c>
+      <c r="E84">
+        <v>3181.66</v>
+      </c>
+      <c r="F84">
+        <v>2297446656</v>
+      </c>
+      <c r="G84">
+        <v>287540832</v>
+      </c>
+      <c r="H84">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="6">
+        <v>40268</v>
+      </c>
+      <c r="B85">
+        <v>3057.01</v>
+      </c>
+      <c r="C85">
+        <v>3109.1</v>
+      </c>
+      <c r="D85">
+        <v>2963.44</v>
+      </c>
+      <c r="E85">
+        <v>3132.58</v>
+      </c>
+      <c r="F85">
+        <v>2149159424</v>
+      </c>
+      <c r="G85">
+        <v>252717664</v>
+      </c>
+      <c r="H85">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="6">
+        <v>40235</v>
+      </c>
+      <c r="B86">
+        <v>2981.37</v>
+      </c>
+      <c r="C86">
+        <v>3051.94</v>
+      </c>
+      <c r="D86">
+        <v>2890.02</v>
+      </c>
+      <c r="E86">
+        <v>3067.52</v>
+      </c>
+      <c r="F86">
+        <v>1225541120</v>
+      </c>
+      <c r="G86">
+        <v>142905808</v>
+      </c>
+      <c r="H86">
+        <v>-8.7800000000000003E-2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="6">
+        <v>40207</v>
+      </c>
+      <c r="B87">
+        <v>3289.75</v>
+      </c>
+      <c r="C87">
+        <v>2989.29</v>
+      </c>
+      <c r="D87">
+        <v>2963.89</v>
+      </c>
+      <c r="E87">
+        <v>3306.75</v>
+      </c>
+      <c r="F87">
+        <v>2355678976</v>
+      </c>
+      <c r="G87">
+        <v>290773184</v>
+      </c>
+      <c r="H87">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="6">
+        <v>40178</v>
+      </c>
+      <c r="B88">
+        <v>3191.06</v>
+      </c>
+      <c r="C88">
+        <v>3277.14</v>
+      </c>
+      <c r="D88">
+        <v>3039.86</v>
+      </c>
+      <c r="E88">
+        <v>3334.01</v>
+      </c>
+      <c r="F88">
+        <v>2690956288</v>
+      </c>
+      <c r="G88">
+        <v>319140896</v>
+      </c>
+      <c r="H88">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="6">
+        <v>40147</v>
+      </c>
+      <c r="B89">
+        <v>2933.82</v>
+      </c>
+      <c r="C89">
+        <v>3195.3</v>
+      </c>
+      <c r="D89">
+        <v>2923.52</v>
+      </c>
+      <c r="E89">
+        <v>3361.39</v>
+      </c>
+      <c r="F89">
+        <v>3002887424</v>
+      </c>
+      <c r="G89">
+        <v>343169024</v>
+      </c>
+      <c r="H89">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="6">
+        <v>40116</v>
+      </c>
+      <c r="B90">
+        <v>2840.13</v>
+      </c>
+      <c r="C90">
+        <v>2995.85</v>
+      </c>
+      <c r="D90">
+        <v>2834.62</v>
+      </c>
+      <c r="E90">
+        <v>3123.46</v>
+      </c>
+      <c r="F90">
+        <v>1767344000</v>
+      </c>
+      <c r="G90">
+        <v>199826352</v>
+      </c>
+      <c r="H90">
+        <v>4.19E-2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="6">
+        <v>40086</v>
+      </c>
+      <c r="B91">
+        <v>2649.17</v>
+      </c>
+      <c r="C91">
+        <v>2779.43</v>
+      </c>
+      <c r="D91">
+        <v>2639.76</v>
+      </c>
+      <c r="E91">
+        <v>3068.03</v>
+      </c>
+      <c r="F91">
+        <v>2580092928</v>
+      </c>
+      <c r="G91">
+        <v>283002112</v>
+      </c>
+      <c r="H91">
+        <v>-0.21809999999999999</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="6">
+        <v>40056</v>
+      </c>
+      <c r="B92">
+        <v>3429.69</v>
+      </c>
+      <c r="C92">
+        <v>2667.75</v>
+      </c>
+      <c r="D92">
+        <v>2663</v>
+      </c>
+      <c r="E92">
+        <v>3478.01</v>
+      </c>
+      <c r="F92">
+        <v>2909614336</v>
+      </c>
+      <c r="G92">
+        <v>333327648</v>
+      </c>
+      <c r="H92">
+        <v>0.153</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="6">
+        <v>40025</v>
+      </c>
+      <c r="B93">
+        <v>2950.17</v>
+      </c>
+      <c r="C93">
+        <v>3412.06</v>
+      </c>
+      <c r="D93">
+        <v>2947.69</v>
+      </c>
+      <c r="E93">
+        <v>3454.02</v>
+      </c>
+      <c r="F93">
+        <v>4165943040</v>
+      </c>
+      <c r="G93">
+        <v>472747040</v>
+      </c>
+      <c r="H93">
+        <v>0.124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="6">
+        <v>39994</v>
+      </c>
+      <c r="B94">
+        <v>2668.4</v>
+      </c>
+      <c r="C94">
+        <v>2959.36</v>
+      </c>
+      <c r="D94">
+        <v>2668.4</v>
+      </c>
+      <c r="E94">
+        <v>2997.27</v>
+      </c>
+      <c r="F94">
+        <v>2978235392</v>
+      </c>
+      <c r="G94">
+        <v>308250496</v>
+      </c>
+      <c r="H94">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="6">
+        <v>39960</v>
+      </c>
+      <c r="B95">
+        <v>2486.69</v>
+      </c>
+      <c r="C95">
+        <v>2632.93</v>
+      </c>
+      <c r="D95">
+        <v>2486.23</v>
+      </c>
+      <c r="E95">
+        <v>2688.11</v>
+      </c>
+      <c r="F95">
+        <v>2471494656</v>
+      </c>
+      <c r="G95">
+        <v>241863184</v>
+      </c>
+      <c r="H95">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="6">
+        <v>39933</v>
+      </c>
+      <c r="B96">
+        <v>2380.98</v>
+      </c>
+      <c r="C96">
+        <v>2477.5700000000002</v>
+      </c>
+      <c r="D96">
+        <v>2331.88</v>
+      </c>
+      <c r="E96">
+        <v>2579.2199999999998</v>
+      </c>
+      <c r="F96">
+        <v>3177542144</v>
+      </c>
+      <c r="G96">
+        <v>300659456</v>
+      </c>
+      <c r="H96">
+        <v>0.1394</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="6">
+        <v>39903</v>
+      </c>
+      <c r="B97">
+        <v>2066.23</v>
+      </c>
+      <c r="C97">
+        <v>2373.21</v>
+      </c>
+      <c r="D97">
+        <v>2037.02</v>
+      </c>
+      <c r="E97">
+        <v>2392.77</v>
+      </c>
+      <c r="F97">
+        <v>2871862272</v>
+      </c>
+      <c r="G97">
+        <v>250294064</v>
+      </c>
+      <c r="H97">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="6">
+        <v>39871</v>
+      </c>
+      <c r="B98">
+        <v>2008.13</v>
+      </c>
+      <c r="C98">
+        <v>2082.85</v>
+      </c>
+      <c r="D98">
+        <v>1987.13</v>
+      </c>
+      <c r="E98">
+        <v>2402.81</v>
+      </c>
+      <c r="F98">
+        <v>3243945472</v>
+      </c>
+      <c r="G98">
+        <v>263363072</v>
+      </c>
+      <c r="H98">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="6">
+        <v>39836</v>
+      </c>
+      <c r="B99">
+        <v>1849.02</v>
+      </c>
+      <c r="C99">
+        <v>1990.66</v>
+      </c>
+      <c r="D99">
+        <v>1844.09</v>
+      </c>
+      <c r="E99">
+        <v>2018.51</v>
+      </c>
+      <c r="F99">
+        <v>1350027520</v>
+      </c>
+      <c r="G99">
+        <v>97466992</v>
+      </c>
+      <c r="H99">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="6">
+        <v>39813</v>
+      </c>
+      <c r="B100">
+        <v>1865.74</v>
+      </c>
+      <c r="C100">
+        <v>1820.81</v>
+      </c>
+      <c r="D100">
+        <v>1814.75</v>
+      </c>
+      <c r="E100">
+        <v>2100.81</v>
+      </c>
+      <c r="F100">
+        <v>2275405568</v>
+      </c>
+      <c r="G100">
+        <v>156295424</v>
+      </c>
+      <c r="H100">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="6">
+        <v>39780</v>
+      </c>
+      <c r="B101">
+        <v>1713.76</v>
+      </c>
+      <c r="C101">
+        <v>1871.16</v>
+      </c>
+      <c r="D101">
+        <v>1678.96</v>
+      </c>
+      <c r="E101">
+        <v>2050.88</v>
+      </c>
+      <c r="F101">
+        <v>1827023616</v>
+      </c>
+      <c r="G101">
+        <v>118381752</v>
+      </c>
+      <c r="H101">
+        <v>-0.24629999999999999</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="6">
+        <v>39752</v>
+      </c>
+      <c r="B102">
+        <v>2267.39</v>
+      </c>
+      <c r="C102">
+        <v>1728.79</v>
+      </c>
+      <c r="D102">
+        <v>1664.93</v>
+      </c>
+      <c r="E102">
+        <v>2267.39</v>
+      </c>
+      <c r="F102">
+        <v>1019965632</v>
+      </c>
+      <c r="G102">
+        <v>73159800</v>
+      </c>
+      <c r="H102">
+        <v>-4.3200000000000002E-2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="6">
+        <v>39717</v>
+      </c>
+      <c r="B103">
+        <v>2380.4699999999998</v>
+      </c>
+      <c r="C103">
+        <v>2293.7800000000002</v>
+      </c>
+      <c r="D103">
+        <v>1802.33</v>
+      </c>
+      <c r="E103">
+        <v>2380.4699999999998</v>
+      </c>
+      <c r="F103">
+        <v>1060612288</v>
+      </c>
+      <c r="G103">
+        <v>81008160</v>
+      </c>
+      <c r="H103">
+        <v>-0.1363</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="6">
+        <v>39689</v>
+      </c>
+      <c r="B104">
+        <v>2751.02</v>
+      </c>
+      <c r="C104">
+        <v>2397.37</v>
+      </c>
+      <c r="D104">
+        <v>2284.58</v>
+      </c>
+      <c r="E104">
+        <v>2830.76</v>
+      </c>
+      <c r="F104">
+        <v>915221632</v>
+      </c>
+      <c r="G104">
+        <v>78733440</v>
+      </c>
+      <c r="H104">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="6">
+        <v>39660</v>
+      </c>
+      <c r="B105">
+        <v>2743.16</v>
+      </c>
+      <c r="C105">
+        <v>2775.72</v>
+      </c>
+      <c r="D105">
+        <v>2566.5300000000002</v>
+      </c>
+      <c r="E105">
+        <v>2952.04</v>
+      </c>
+      <c r="F105">
+        <v>1449774336</v>
+      </c>
+      <c r="G105">
+        <v>152994256</v>
+      </c>
+      <c r="H105">
+        <v>-0.2031</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="6">
+        <v>39629</v>
+      </c>
+      <c r="B106">
+        <v>3426.2</v>
+      </c>
+      <c r="C106">
+        <v>2736.1</v>
+      </c>
+      <c r="D106">
+        <v>2693.4</v>
+      </c>
+      <c r="E106">
+        <v>3483.61</v>
+      </c>
+      <c r="F106">
+        <v>1018349632</v>
+      </c>
+      <c r="G106">
+        <v>112929512</v>
+      </c>
+      <c r="H106">
+        <v>-7.0300000000000001E-2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="6">
+        <v>39598</v>
+      </c>
+      <c r="B107">
+        <v>3739.8</v>
+      </c>
+      <c r="C107">
+        <v>3433.35</v>
+      </c>
+      <c r="D107">
+        <v>3333.95</v>
+      </c>
+      <c r="E107">
+        <v>3786.02</v>
+      </c>
+      <c r="F107">
+        <v>1424808192</v>
+      </c>
+      <c r="G107">
+        <v>197750720</v>
+      </c>
+      <c r="H107">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="6">
+        <v>39568</v>
+      </c>
+      <c r="B108">
+        <v>3461.08</v>
+      </c>
+      <c r="C108">
+        <v>3693.11</v>
+      </c>
+      <c r="D108">
+        <v>2990.79</v>
+      </c>
+      <c r="E108">
+        <v>3705.09</v>
+      </c>
+      <c r="F108">
+        <v>1368061824</v>
+      </c>
+      <c r="G108">
+        <v>186326272</v>
+      </c>
+      <c r="H108">
+        <v>-0.2014</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="6">
+        <v>39538</v>
+      </c>
+      <c r="B109">
+        <v>4323.7</v>
+      </c>
+      <c r="C109">
+        <v>3472.71</v>
+      </c>
+      <c r="D109">
+        <v>3357.23</v>
+      </c>
+      <c r="E109">
+        <v>4472.1499999999996</v>
+      </c>
+      <c r="F109">
+        <v>1290916224</v>
+      </c>
+      <c r="G109">
+        <v>194145792</v>
+      </c>
+      <c r="H109">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="6">
+        <v>39507</v>
+      </c>
+      <c r="B110">
+        <v>4388.25</v>
+      </c>
+      <c r="C110">
+        <v>4348.54</v>
+      </c>
+      <c r="D110">
+        <v>4123.3100000000004</v>
+      </c>
+      <c r="E110">
+        <v>4695.8</v>
+      </c>
+      <c r="F110">
+        <v>861169856</v>
+      </c>
+      <c r="G110">
+        <v>142279312</v>
+      </c>
+      <c r="H110">
+        <v>-0.16689999999999999</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="6">
+        <v>39478</v>
+      </c>
+      <c r="B111">
+        <v>5265</v>
+      </c>
+      <c r="C111">
+        <v>4383.3900000000003</v>
+      </c>
+      <c r="D111">
+        <v>4330.7</v>
+      </c>
+      <c r="E111">
+        <v>5522.78</v>
+      </c>
+      <c r="F111">
+        <v>1771730432</v>
+      </c>
+      <c r="G111">
+        <v>307545024</v>
+      </c>
+      <c r="H111">
+        <v>0.08</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="6">
+        <v>39444</v>
+      </c>
+      <c r="B112">
+        <v>4838.5600000000004</v>
+      </c>
+      <c r="C112">
+        <v>5261.56</v>
+      </c>
+      <c r="D112">
+        <v>4798.01</v>
+      </c>
+      <c r="E112">
+        <v>5336.5</v>
+      </c>
+      <c r="F112">
+        <v>1251505664</v>
+      </c>
+      <c r="G112">
+        <v>197321520</v>
+      </c>
+      <c r="H112">
+        <v>-0.18190000000000001</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="6">
+        <v>39416</v>
+      </c>
+      <c r="B113">
+        <v>5978.94</v>
+      </c>
+      <c r="C113">
+        <v>4871.78</v>
+      </c>
+      <c r="D113">
+        <v>4778.7299999999996</v>
+      </c>
+      <c r="E113">
+        <v>6005.13</v>
+      </c>
+      <c r="F113">
+        <v>1007005888</v>
+      </c>
+      <c r="G113">
+        <v>173840544</v>
+      </c>
+      <c r="H113">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="6">
+        <v>39386</v>
+      </c>
+      <c r="B114">
+        <v>5683.31</v>
+      </c>
+      <c r="C114">
+        <v>5954.77</v>
+      </c>
+      <c r="D114">
+        <v>5462.01</v>
+      </c>
+      <c r="E114">
+        <v>6124.04</v>
+      </c>
+      <c r="F114">
+        <v>1340664960</v>
+      </c>
+      <c r="G114">
+        <v>241024080</v>
+      </c>
+      <c r="H114">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="6">
+        <v>39353</v>
+      </c>
+      <c r="B115">
+        <v>5257.78</v>
+      </c>
+      <c r="C115">
+        <v>5552.3</v>
+      </c>
+      <c r="D115">
+        <v>5025.34</v>
+      </c>
+      <c r="E115">
+        <v>5560.42</v>
+      </c>
+      <c r="F115">
+        <v>1918855424</v>
+      </c>
+      <c r="G115">
+        <v>304609536</v>
+      </c>
+      <c r="H115">
+        <v>0.1673</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="6">
+        <v>39325</v>
+      </c>
+      <c r="B116">
+        <v>4488.7700000000004</v>
+      </c>
+      <c r="C116">
+        <v>5218.83</v>
+      </c>
+      <c r="D116">
+        <v>4284.87</v>
+      </c>
+      <c r="E116">
+        <v>5235.16</v>
+      </c>
+      <c r="F116">
+        <v>2407928576</v>
+      </c>
+      <c r="G116">
+        <v>355976096</v>
+      </c>
+      <c r="H116">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="6">
+        <v>39294</v>
+      </c>
+      <c r="B117">
+        <v>3800.23</v>
+      </c>
+      <c r="C117">
+        <v>4471.03</v>
+      </c>
+      <c r="D117">
+        <v>3563.54</v>
+      </c>
+      <c r="E117">
+        <v>4476.63</v>
+      </c>
+      <c r="F117">
+        <v>1695465344</v>
+      </c>
+      <c r="G117">
+        <v>215854576</v>
+      </c>
+      <c r="H117">
+        <v>-7.0300000000000001E-2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="6">
+        <v>39262</v>
+      </c>
+      <c r="B118">
+        <v>4120.63</v>
+      </c>
+      <c r="C118">
+        <v>3820.7</v>
+      </c>
+      <c r="D118">
+        <v>3404.15</v>
+      </c>
+      <c r="E118">
+        <v>4312</v>
+      </c>
+      <c r="F118">
+        <v>2650217984</v>
+      </c>
+      <c r="G118">
+        <v>353288448</v>
+      </c>
+      <c r="H118">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="6">
+        <v>39233</v>
+      </c>
+      <c r="B119">
+        <v>3937.94</v>
+      </c>
+      <c r="C119">
+        <v>4109.6499999999996</v>
+      </c>
+      <c r="D119">
+        <v>3845.23</v>
+      </c>
+      <c r="E119">
+        <v>4335.96</v>
+      </c>
+      <c r="F119">
+        <v>2914210304</v>
+      </c>
+      <c r="G119">
+        <v>392811360</v>
+      </c>
+      <c r="H119">
+        <v>0.2064</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="6">
+        <v>39202</v>
+      </c>
+      <c r="B120">
+        <v>3196.59</v>
+      </c>
+      <c r="C120">
+        <v>3841.27</v>
+      </c>
+      <c r="D120">
+        <v>3196.59</v>
+      </c>
+      <c r="E120">
+        <v>3851.35</v>
+      </c>
+      <c r="F120">
+        <v>2910928896</v>
+      </c>
+      <c r="G120">
+        <v>320055744</v>
+      </c>
+      <c r="H120">
+        <v>0.1051</v>
+      </c>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="6">
+        <v>39171</v>
+      </c>
+      <c r="B121">
+        <v>2877.2</v>
+      </c>
+      <c r="C121">
+        <v>3183.98</v>
+      </c>
+      <c r="D121">
+        <v>2723.06</v>
+      </c>
+      <c r="E121">
+        <v>3273.73</v>
+      </c>
+      <c r="F121">
+        <v>2436304384</v>
+      </c>
+      <c r="G121">
+        <v>210846656</v>
+      </c>
+      <c r="H121">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="6">
+        <v>39141</v>
+      </c>
+      <c r="B122">
+        <v>2744.81</v>
+      </c>
+      <c r="C122">
+        <v>2881.07</v>
+      </c>
+      <c r="D122">
+        <v>2541.52</v>
+      </c>
+      <c r="E122">
+        <v>3049.77</v>
+      </c>
+      <c r="F122">
+        <v>1472657024</v>
+      </c>
+      <c r="G122">
+        <v>116462032</v>
+      </c>
+      <c r="H122">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="6">
+        <v>39113</v>
+      </c>
+      <c r="B123">
+        <v>2728.19</v>
+      </c>
+      <c r="C123">
+        <v>2786.33</v>
+      </c>
+      <c r="D123">
+        <v>2617.02</v>
+      </c>
+      <c r="E123">
+        <v>2994.28</v>
+      </c>
+      <c r="F123">
+        <v>2317728256</v>
+      </c>
+      <c r="G123">
+        <v>171990256</v>
+      </c>
+      <c r="H123">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="6">
+        <v>39080</v>
+      </c>
+      <c r="B124">
+        <v>2106.29</v>
+      </c>
+      <c r="C124">
+        <v>2675.47</v>
+      </c>
+      <c r="D124">
+        <v>2084.27</v>
+      </c>
+      <c r="E124">
+        <v>2698.9</v>
+      </c>
+      <c r="F124">
+        <v>1626577280</v>
+      </c>
+      <c r="G124">
+        <v>102433576</v>
+      </c>
+      <c r="H124">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="6">
+        <v>39051</v>
+      </c>
+      <c r="B125">
+        <v>1838.68</v>
+      </c>
+      <c r="C125">
+        <v>2099.29</v>
+      </c>
+      <c r="D125">
+        <v>1833.2</v>
+      </c>
+      <c r="E125">
+        <v>2102.06</v>
+      </c>
+      <c r="F125">
+        <v>1193314432</v>
+      </c>
+      <c r="G125">
+        <v>68837832</v>
+      </c>
+      <c r="H125">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="6">
+        <v>39021</v>
+      </c>
+      <c r="B126">
+        <v>1768.14</v>
+      </c>
+      <c r="C126">
+        <v>1837.99</v>
+      </c>
+      <c r="D126">
+        <v>1753.49</v>
+      </c>
+      <c r="E126">
+        <v>1842.73</v>
+      </c>
+      <c r="F126">
+        <v>802099264</v>
+      </c>
+      <c r="G126">
+        <v>43254584</v>
+      </c>
+      <c r="H126">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="6">
+        <v>38989</v>
+      </c>
+      <c r="B127">
+        <v>1658.66</v>
+      </c>
+      <c r="C127">
+        <v>1752.42</v>
+      </c>
+      <c r="D127">
+        <v>1634.03</v>
+      </c>
+      <c r="E127">
+        <v>1755.69</v>
+      </c>
+      <c r="F127">
+        <v>782392064</v>
+      </c>
+      <c r="G127">
+        <v>42719800</v>
+      </c>
+      <c r="H127">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="6">
+        <v>38960</v>
+      </c>
+      <c r="B128">
+        <v>1619.64</v>
+      </c>
+      <c r="C128">
+        <v>1658.64</v>
+      </c>
+      <c r="D128">
+        <v>1541.41</v>
+      </c>
+      <c r="E128">
+        <v>1667.53</v>
+      </c>
+      <c r="F128">
+        <v>631743872</v>
+      </c>
+      <c r="G128">
+        <v>34244044</v>
+      </c>
+      <c r="H128">
+        <v>-3.56E-2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="6">
+        <v>38929</v>
+      </c>
+      <c r="B129">
+        <v>1677.31</v>
+      </c>
+      <c r="C129">
+        <v>1612.73</v>
+      </c>
+      <c r="D129">
+        <v>1611.16</v>
+      </c>
+      <c r="E129">
+        <v>1757.47</v>
+      </c>
+      <c r="F129">
+        <v>857152064</v>
+      </c>
+      <c r="G129">
+        <v>50150516</v>
+      </c>
+      <c r="H129">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="6">
+        <v>38898</v>
+      </c>
+      <c r="B130">
+        <v>1639.67</v>
+      </c>
+      <c r="C130">
+        <v>1672.21</v>
+      </c>
+      <c r="D130">
+        <v>1512.52</v>
+      </c>
+      <c r="E130">
+        <v>1695.58</v>
+      </c>
+      <c r="F130">
+        <v>985911872</v>
+      </c>
+      <c r="G130">
+        <v>55845016</v>
+      </c>
+      <c r="H130">
+        <v>0.1396</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="6">
+        <v>38868</v>
+      </c>
+      <c r="B131">
+        <v>1446.99</v>
+      </c>
+      <c r="C131">
+        <v>1641.3</v>
+      </c>
+      <c r="D131">
+        <v>1446.99</v>
+      </c>
+      <c r="E131">
+        <v>1678.6</v>
+      </c>
+      <c r="F131">
+        <v>1156306176</v>
+      </c>
+      <c r="G131">
+        <v>66901048</v>
+      </c>
+      <c r="H131">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="6">
+        <v>38835</v>
+      </c>
+      <c r="B132">
+        <v>1298.68</v>
+      </c>
+      <c r="C132">
+        <v>1440.22</v>
+      </c>
+      <c r="D132">
+        <v>1298.68</v>
+      </c>
+      <c r="E132">
+        <v>1444.71</v>
+      </c>
+      <c r="F132">
+        <v>825969472</v>
+      </c>
+      <c r="G132">
+        <v>43587544</v>
+      </c>
+      <c r="H132">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="6">
+        <v>38807</v>
+      </c>
+      <c r="B133">
+        <v>1299.1500000000001</v>
+      </c>
+      <c r="C133">
+        <v>1298.3</v>
+      </c>
+      <c r="D133">
+        <v>1238.1600000000001</v>
+      </c>
+      <c r="E133">
+        <v>1313.12</v>
+      </c>
+      <c r="F133">
+        <v>502812864</v>
+      </c>
+      <c r="G133">
+        <v>24979030</v>
+      </c>
+      <c r="H133">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="6">
+        <v>38776</v>
+      </c>
+      <c r="B134">
+        <v>1263</v>
+      </c>
+      <c r="C134">
+        <v>1299.03</v>
+      </c>
+      <c r="D134">
+        <v>1256.81</v>
+      </c>
+      <c r="E134">
+        <v>1304.6099999999999</v>
+      </c>
+      <c r="F134">
+        <v>466549952</v>
+      </c>
+      <c r="G134">
+        <v>22947446</v>
+      </c>
+      <c r="H134">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="6">
+        <v>38742</v>
+      </c>
+      <c r="B135">
+        <v>1163.8800000000001</v>
+      </c>
+      <c r="C135">
+        <v>1258.05</v>
+      </c>
+      <c r="D135">
+        <v>1161.9100000000001</v>
+      </c>
+      <c r="E135">
+        <v>1262.0899999999999</v>
+      </c>
+      <c r="F135">
+        <v>451695072</v>
+      </c>
+      <c r="G135">
+        <v>22180816</v>
+      </c>
+      <c r="H135">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="6">
+        <v>38716</v>
+      </c>
+      <c r="B136">
+        <v>1098.78</v>
+      </c>
+      <c r="C136">
+        <v>1161.06</v>
+      </c>
+      <c r="D136">
+        <v>1074.01</v>
+      </c>
+      <c r="E136">
+        <v>1173.06</v>
+      </c>
+      <c r="F136">
+        <v>296566240</v>
+      </c>
+      <c r="G136">
+        <v>13578502</v>
+      </c>
+      <c r="H136">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="6">
+        <v>38686</v>
+      </c>
+      <c r="B137">
+        <v>1091.68</v>
+      </c>
+      <c r="C137">
+        <v>1099.26</v>
+      </c>
+      <c r="D137">
+        <v>1074.3</v>
+      </c>
+      <c r="E137">
+        <v>1122.8800000000001</v>
+      </c>
+      <c r="F137">
+        <v>314751616</v>
+      </c>
+      <c r="G137">
+        <v>13520255</v>
+      </c>
+      <c r="H137">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="6">
+        <v>38656</v>
+      </c>
+      <c r="B138">
+        <v>1153.67</v>
+      </c>
+      <c r="C138">
+        <v>1092.82</v>
+      </c>
+      <c r="D138">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="E138">
+        <v>1165.67</v>
+      </c>
+      <c r="F138">
+        <v>267450272</v>
+      </c>
+      <c r="G138">
+        <v>12795722</v>
+      </c>
+      <c r="H138">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="6">
+        <v>38625</v>
+      </c>
+      <c r="B139">
+        <v>1163.7</v>
+      </c>
+      <c r="C139">
+        <v>1155.6099999999999</v>
+      </c>
+      <c r="D139">
+        <v>1129.05</v>
+      </c>
+      <c r="E139">
+        <v>1223.56</v>
+      </c>
+      <c r="F139">
+        <v>545839296</v>
+      </c>
+      <c r="G139">
+        <v>25123382</v>
+      </c>
+      <c r="H139">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="6">
+        <v>38595</v>
+      </c>
+      <c r="B140">
+        <v>1082.8</v>
+      </c>
+      <c r="C140">
+        <v>1162.8</v>
+      </c>
+      <c r="D140">
+        <v>1081.1199999999999</v>
+      </c>
+      <c r="E140">
+        <v>1201.76</v>
+      </c>
+      <c r="F140">
+        <v>636102912</v>
+      </c>
+      <c r="G140">
+        <v>28130014</v>
+      </c>
+      <c r="H140">
+        <v>1.9E-3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="6">
+        <v>38562</v>
+      </c>
+      <c r="B141">
+        <v>1077.31</v>
+      </c>
+      <c r="C141">
+        <v>1083.03</v>
+      </c>
+      <c r="D141">
+        <v>1004.08</v>
+      </c>
+      <c r="E141">
+        <v>1097.6300000000001</v>
+      </c>
+      <c r="F141">
+        <v>306352800</v>
+      </c>
+      <c r="G141">
+        <v>13165603</v>
+      </c>
+      <c r="H141">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="6">
+        <v>38533</v>
+      </c>
+      <c r="B142">
+        <v>1059.6099999999999</v>
+      </c>
+      <c r="C142">
+        <v>1080.94</v>
+      </c>
+      <c r="D142">
+        <v>1000.52</v>
+      </c>
+      <c r="E142">
+        <v>1146.42</v>
+      </c>
+      <c r="F142">
+        <v>386211136</v>
+      </c>
+      <c r="G142">
+        <v>18368840</v>
+      </c>
+      <c r="H142">
+        <v>-8.4900000000000003E-2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="6">
+        <v>38503</v>
+      </c>
+      <c r="B143">
+        <v>1160.6199999999999</v>
+      </c>
+      <c r="C143">
+        <v>1060.74</v>
+      </c>
+      <c r="D143">
+        <v>1043.28</v>
+      </c>
+      <c r="E143">
+        <v>1165.3900000000001</v>
+      </c>
+      <c r="F143">
+        <v>181131840</v>
+      </c>
+      <c r="G143">
+        <v>8768433</v>
+      </c>
+      <c r="H143">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="6">
+        <v>38471</v>
+      </c>
+      <c r="B144">
+        <v>1180.3699999999999</v>
+      </c>
+      <c r="C144">
+        <v>1159.1500000000001</v>
+      </c>
+      <c r="D144">
+        <v>1135.73</v>
+      </c>
+      <c r="E144">
+        <v>1254.32</v>
+      </c>
+      <c r="F144">
+        <v>318922976</v>
+      </c>
+      <c r="G144">
+        <v>17570272</v>
+      </c>
+      <c r="H144">
+        <v>-9.5500000000000002E-2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="6">
+        <v>38442</v>
+      </c>
+      <c r="B145">
+        <v>1305.25</v>
+      </c>
+      <c r="C145">
+        <v>1181.24</v>
+      </c>
+      <c r="D145">
+        <v>1162.03</v>
+      </c>
+      <c r="E145">
+        <v>1326.08</v>
+      </c>
+      <c r="F145">
+        <v>311177984</v>
+      </c>
+      <c r="G145">
+        <v>18157596</v>
+      </c>
+      <c r="H145">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="6">
+        <v>38411</v>
+      </c>
+      <c r="B146">
+        <v>1189.5</v>
+      </c>
+      <c r="C146">
+        <v>1306</v>
+      </c>
+      <c r="D146">
+        <v>1187.26</v>
+      </c>
+      <c r="E146">
+        <v>1328.53</v>
+      </c>
+      <c r="F146">
+        <v>223355632</v>
+      </c>
+      <c r="G146">
+        <v>12471892</v>
+      </c>
+      <c r="H146">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="6">
+        <v>38383</v>
+      </c>
+      <c r="B147">
+        <v>1260.78</v>
+      </c>
+      <c r="C147">
+        <v>1191.82</v>
+      </c>
+      <c r="D147">
+        <v>1189.21</v>
+      </c>
+      <c r="E147">
+        <v>1268.8599999999999</v>
+      </c>
+      <c r="F147">
+        <v>197091104</v>
+      </c>
+      <c r="G147">
+        <v>10651256</v>
+      </c>
+      <c r="H147">
+        <v>-5.5399999999999998E-2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="6">
+        <v>38352</v>
+      </c>
+      <c r="B148">
+        <v>1340.92</v>
+      </c>
+      <c r="C148">
+        <v>1266.5</v>
+      </c>
+      <c r="D148">
+        <v>1264.1500000000001</v>
+      </c>
+      <c r="E148">
+        <v>1352.45</v>
+      </c>
+      <c r="F148">
+        <v>221278672</v>
+      </c>
+      <c r="G148">
+        <v>12673817</v>
+      </c>
+      <c r="H148">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="6">
+        <v>38321</v>
+      </c>
+      <c r="B149">
+        <v>1317.66</v>
+      </c>
+      <c r="C149">
+        <v>1340.77</v>
+      </c>
+      <c r="D149">
+        <v>1290.99</v>
+      </c>
+      <c r="E149">
+        <v>1387.34</v>
+      </c>
+      <c r="F149">
+        <v>300057952</v>
+      </c>
+      <c r="G149">
+        <v>18305408</v>
+      </c>
+      <c r="H149">
+        <v>-5.45E-2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="6">
+        <v>38289</v>
+      </c>
+      <c r="B150">
+        <v>1395.67</v>
+      </c>
+      <c r="C150">
+        <v>1320.54</v>
+      </c>
+      <c r="D150">
+        <v>1289.8699999999999</v>
+      </c>
+      <c r="E150">
+        <v>1437.57</v>
+      </c>
+      <c r="F150">
+        <v>261482816</v>
+      </c>
+      <c r="G150">
+        <v>17214676</v>
+      </c>
+      <c r="H150">
+        <v>4.07E-2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="6">
+        <v>38260</v>
+      </c>
+      <c r="B151">
+        <v>1340.75</v>
+      </c>
+      <c r="C151">
+        <v>1396.7</v>
+      </c>
+      <c r="D151">
+        <v>1259.43</v>
+      </c>
+      <c r="E151">
+        <v>1496.21</v>
+      </c>
+      <c r="F151">
+        <v>389067008</v>
+      </c>
+      <c r="G151">
+        <v>24146060</v>
+      </c>
+      <c r="H151">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="6">
+        <v>38230</v>
+      </c>
+      <c r="B152">
+        <v>1381.88</v>
+      </c>
+      <c r="C152">
+        <v>1342.06</v>
+      </c>
+      <c r="D152">
+        <v>1310.02</v>
+      </c>
+      <c r="E152">
+        <v>1424.55</v>
+      </c>
+      <c r="F152">
+        <v>180654432</v>
+      </c>
+      <c r="G152">
+        <v>11405574</v>
+      </c>
+      <c r="H152">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="6">
+        <v>38198</v>
+      </c>
+      <c r="B153">
+        <v>1398.2</v>
+      </c>
+      <c r="C153">
+        <v>1386.2</v>
+      </c>
+      <c r="D153">
+        <v>1366.5</v>
+      </c>
+      <c r="E153">
+        <v>1466.78</v>
+      </c>
+      <c r="F153">
+        <v>231014704</v>
+      </c>
+      <c r="G153">
+        <v>15458535</v>
+      </c>
+      <c r="H153">
+        <v>-0.1007</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="6">
+        <v>38168</v>
+      </c>
+      <c r="B154">
+        <v>1555.56</v>
+      </c>
+      <c r="C154">
+        <v>1399.16</v>
+      </c>
+      <c r="D154">
+        <v>1376.22</v>
+      </c>
+      <c r="E154">
+        <v>1580.57</v>
+      </c>
+      <c r="F154">
+        <v>221336736</v>
+      </c>
+      <c r="G154">
+        <v>16870042</v>
+      </c>
+      <c r="H154">
+        <v>-2.4899999999999999E-2</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="6">
+        <v>38138</v>
+      </c>
+      <c r="B155">
+        <v>1600.63</v>
+      </c>
+      <c r="C155">
+        <v>1555.91</v>
+      </c>
+      <c r="D155">
+        <v>1508.65</v>
+      </c>
+      <c r="E155">
+        <v>1606.07</v>
+      </c>
+      <c r="F155">
+        <v>147889392</v>
+      </c>
+      <c r="G155">
+        <v>11507948</v>
+      </c>
+      <c r="H155">
+        <v>-8.3900000000000002E-2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="6">
+        <v>38107</v>
+      </c>
+      <c r="B156">
+        <v>1744.71</v>
+      </c>
+      <c r="C156">
+        <v>1595.59</v>
+      </c>
+      <c r="D156">
+        <v>1572.23</v>
+      </c>
+      <c r="E156">
+        <v>1783.01</v>
+      </c>
+      <c r="F156">
+        <v>372960352</v>
+      </c>
+      <c r="G156">
+        <v>32295642</v>
+      </c>
+      <c r="H156">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="6">
+        <v>38077</v>
+      </c>
+      <c r="B157">
+        <v>1676.22</v>
+      </c>
+      <c r="C157">
+        <v>1741.62</v>
+      </c>
+      <c r="D157">
+        <v>1634.71</v>
+      </c>
+      <c r="E157">
+        <v>1760.08</v>
+      </c>
+      <c r="F157">
+        <v>414562848</v>
+      </c>
+      <c r="G157">
+        <v>35186208</v>
+      </c>
+      <c r="H157">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="6">
+        <v>38044</v>
+      </c>
+      <c r="B158">
+        <v>1630.65</v>
+      </c>
+      <c r="C158">
+        <v>1675.07</v>
+      </c>
+      <c r="D158">
+        <v>1585.96</v>
+      </c>
+      <c r="E158">
+        <v>1730.28</v>
+      </c>
+      <c r="F158">
+        <v>545986816</v>
+      </c>
+      <c r="G158">
+        <v>44797612</v>
+      </c>
+      <c r="H158">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="6">
+        <v>38016</v>
+      </c>
+      <c r="B159">
+        <v>1492.72</v>
+      </c>
+      <c r="C159">
+        <v>1590.73</v>
+      </c>
+      <c r="D159">
+        <v>1491.69</v>
+      </c>
+      <c r="E159">
+        <v>1634.41</v>
+      </c>
+      <c r="F159">
+        <v>320241408</v>
+      </c>
+      <c r="G159">
+        <v>24777074</v>
+      </c>
+      <c r="H159">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="6">
+        <v>37986</v>
+      </c>
+      <c r="B160">
+        <v>1398.71</v>
+      </c>
+      <c r="C160">
+        <v>1497.04</v>
+      </c>
+      <c r="D160">
+        <v>1398.71</v>
+      </c>
+      <c r="E160">
+        <v>1525.3</v>
+      </c>
+      <c r="F160">
+        <v>390332224</v>
+      </c>
+      <c r="G160">
+        <v>28440136</v>
+      </c>
+      <c r="H160">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="6">
+        <v>37953</v>
+      </c>
+      <c r="B161">
+        <v>1346.48</v>
+      </c>
+      <c r="C161">
+        <v>1397.22</v>
+      </c>
+      <c r="D161">
+        <v>1307.4000000000001</v>
+      </c>
+      <c r="E161">
+        <v>1423.58</v>
+      </c>
+      <c r="F161">
+        <v>280055456</v>
+      </c>
+      <c r="G161">
+        <v>18576024</v>
+      </c>
+      <c r="H161">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="6">
+        <v>37925</v>
+      </c>
+      <c r="B162">
+        <v>1366.2</v>
+      </c>
+      <c r="C162">
+        <v>1348.3</v>
+      </c>
+      <c r="D162">
+        <v>1334.78</v>
+      </c>
+      <c r="E162">
+        <v>1411.88</v>
+      </c>
+      <c r="F162">
+        <v>151454928</v>
+      </c>
+      <c r="G162">
+        <v>10569965</v>
+      </c>
+      <c r="H162">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="6">
+        <v>37894</v>
+      </c>
+      <c r="B163">
+        <v>1423.35</v>
+      </c>
+      <c r="C163">
+        <v>1367.16</v>
+      </c>
+      <c r="D163">
+        <v>1348.22</v>
+      </c>
+      <c r="E163">
+        <v>1456.55</v>
+      </c>
+      <c r="F163">
+        <v>140680608</v>
+      </c>
+      <c r="G163">
+        <v>11330574</v>
+      </c>
+      <c r="H163">
+        <v>-3.7100000000000001E-2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="6">
+        <v>37862</v>
+      </c>
+      <c r="B164">
+        <v>1476.47</v>
+      </c>
+      <c r="C164">
+        <v>1421.98</v>
+      </c>
+      <c r="D164">
+        <v>1406.68</v>
+      </c>
+      <c r="E164">
+        <v>1497.1</v>
+      </c>
+      <c r="F164">
+        <v>116427168</v>
+      </c>
+      <c r="G164">
+        <v>9424626</v>
+      </c>
+      <c r="H164">
+        <v>-6.1999999999999998E-3</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="6">
+        <v>37833</v>
+      </c>
+      <c r="B165">
+        <v>1485.52</v>
+      </c>
+      <c r="C165">
+        <v>1476.74</v>
+      </c>
+      <c r="D165">
+        <v>1464.87</v>
+      </c>
+      <c r="E165">
+        <v>1540.19</v>
+      </c>
+      <c r="F165">
+        <v>181829280</v>
+      </c>
+      <c r="G165">
+        <v>14919618</v>
+      </c>
+      <c r="H165">
+        <v>-5.7200000000000001E-2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="6">
+        <v>37802</v>
+      </c>
+      <c r="B166">
+        <v>1577.99</v>
+      </c>
+      <c r="C166">
+        <v>1486.02</v>
+      </c>
+      <c r="D166">
+        <v>1483.69</v>
+      </c>
+      <c r="E166">
+        <v>1582.41</v>
+      </c>
+      <c r="F166">
+        <v>191009120</v>
+      </c>
+      <c r="G166">
+        <v>15567541</v>
+      </c>
+      <c r="H166">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="6">
+        <v>37771</v>
+      </c>
+      <c r="B167">
+        <v>1522.98</v>
+      </c>
+      <c r="C167">
+        <v>1576.26</v>
+      </c>
+      <c r="D167">
+        <v>1477.25</v>
+      </c>
+      <c r="E167">
+        <v>1581.61</v>
+      </c>
+      <c r="F167">
+        <v>232396864</v>
+      </c>
+      <c r="G167">
+        <v>19177782</v>
+      </c>
+      <c r="H167">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="6">
+        <v>37741</v>
+      </c>
+      <c r="B168">
+        <v>1513</v>
+      </c>
+      <c r="C168">
+        <v>1521.44</v>
+      </c>
+      <c r="D168">
+        <v>1473.27</v>
+      </c>
+      <c r="E168">
+        <v>1649.6</v>
+      </c>
+      <c r="F168">
+        <v>459577184</v>
+      </c>
+      <c r="G168">
+        <v>36928380</v>
+      </c>
+      <c r="H168">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="6">
+        <v>37711</v>
+      </c>
+      <c r="B169">
+        <v>1511.58</v>
+      </c>
+      <c r="C169">
+        <v>1510.58</v>
+      </c>
+      <c r="D169">
+        <v>1447.01</v>
+      </c>
+      <c r="E169">
+        <v>1529.75</v>
+      </c>
+      <c r="F169">
+        <v>151406240</v>
+      </c>
+      <c r="G169">
+        <v>13075428</v>
+      </c>
+      <c r="H169">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="6">
+        <v>37680</v>
+      </c>
+      <c r="B170">
+        <v>1499.17</v>
+      </c>
+      <c r="C170">
+        <v>1511.93</v>
+      </c>
+      <c r="D170">
+        <v>1474.47</v>
+      </c>
+      <c r="E170">
+        <v>1524.75</v>
+      </c>
+      <c r="F170">
+        <v>119819752</v>
+      </c>
+      <c r="G170">
+        <v>10118685</v>
+      </c>
+      <c r="H170">
+        <v>0.1047</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="6">
+        <v>37650</v>
+      </c>
+      <c r="B171">
+        <v>1347.43</v>
+      </c>
+      <c r="C171">
+        <v>1499.81</v>
+      </c>
+      <c r="D171">
+        <v>1311.68</v>
+      </c>
+      <c r="E171">
+        <v>1508.59</v>
+      </c>
+      <c r="F171">
+        <v>263655136</v>
+      </c>
+      <c r="G171">
+        <v>19122428</v>
+      </c>
+      <c r="H171">
+        <v>-5.3400000000000003E-2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="6">
+        <v>37621</v>
+      </c>
+      <c r="B172">
+        <v>1432.03</v>
+      </c>
+      <c r="C172">
+        <v>1357.65</v>
+      </c>
+      <c r="D172">
+        <v>1348.71</v>
+      </c>
+      <c r="E172">
+        <v>1439.85</v>
+      </c>
+      <c r="F172">
+        <v>126401312</v>
+      </c>
+      <c r="G172">
+        <v>10638121</v>
+      </c>
+      <c r="H172">
+        <v>-4.8599999999999997E-2</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="6">
+        <v>37589</v>
+      </c>
+      <c r="B173">
+        <v>1507.38</v>
+      </c>
+      <c r="C173">
+        <v>1434.18</v>
+      </c>
+      <c r="D173">
+        <v>1353.14</v>
+      </c>
+      <c r="E173">
+        <v>1573.1</v>
+      </c>
+      <c r="F173">
+        <v>140550720</v>
+      </c>
+      <c r="G173">
+        <v>11739634</v>
+      </c>
+      <c r="H173">
+        <v>-4.6899999999999997E-2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="6">
+        <v>37560</v>
+      </c>
+      <c r="B174">
+        <v>1577.05</v>
+      </c>
+      <c r="C174">
+        <v>1507.5</v>
+      </c>
+      <c r="D174">
+        <v>1488.68</v>
+      </c>
+      <c r="E174">
+        <v>1577.05</v>
+      </c>
+      <c r="F174">
+        <v>94688536</v>
+      </c>
+      <c r="G174">
+        <v>7266145</v>
+      </c>
+      <c r="H174">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="6">
+        <v>37526</v>
+      </c>
+      <c r="B175">
+        <v>1666.34</v>
+      </c>
+      <c r="C175">
+        <v>1581.62</v>
+      </c>
+      <c r="D175">
+        <v>1577.53</v>
+      </c>
+      <c r="E175">
+        <v>1680.28</v>
+      </c>
+      <c r="F175">
+        <v>79559648</v>
+      </c>
+      <c r="G175">
+        <v>8356075</v>
+      </c>
+      <c r="H175">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="6">
+        <v>37498</v>
+      </c>
+      <c r="B176">
+        <v>1650.05</v>
+      </c>
+      <c r="C176">
+        <v>1666.62</v>
+      </c>
+      <c r="D176">
+        <v>1624.05</v>
+      </c>
+      <c r="E176">
+        <v>1696.28</v>
+      </c>
+      <c r="F176">
+        <v>107809600</v>
+      </c>
+      <c r="G176">
+        <v>11125966</v>
+      </c>
+      <c r="H176">
+        <v>-4.6800000000000001E-2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="6">
+        <v>37468</v>
+      </c>
+      <c r="B177">
+        <v>1736.29</v>
+      </c>
+      <c r="C177">
+        <v>1651.59</v>
+      </c>
+      <c r="D177">
+        <v>1647.27</v>
+      </c>
+      <c r="E177">
+        <v>1741.92</v>
+      </c>
+      <c r="F177">
+        <v>202036896</v>
+      </c>
+      <c r="G177">
+        <v>19857432</v>
+      </c>
+      <c r="H177">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="6">
+        <v>37435</v>
+      </c>
+      <c r="B178">
+        <v>1510.25</v>
+      </c>
+      <c r="C178">
+        <v>1732.76</v>
+      </c>
+      <c r="D178">
+        <v>1455.31</v>
+      </c>
+      <c r="E178">
+        <v>1748.89</v>
+      </c>
+      <c r="F178">
+        <v>248254192</v>
+      </c>
+      <c r="G178">
+        <v>23607980</v>
+      </c>
+      <c r="H178">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="6">
+        <v>37407</v>
+      </c>
+      <c r="B179">
+        <v>1669.87</v>
+      </c>
+      <c r="C179">
+        <v>1515.73</v>
+      </c>
+      <c r="D179">
+        <v>1506.54</v>
+      </c>
+      <c r="E179">
+        <v>1670.92</v>
+      </c>
+      <c r="F179">
+        <v>105194792</v>
+      </c>
+      <c r="G179">
+        <v>10753487</v>
+      </c>
+      <c r="H179">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="6">
+        <v>37376</v>
+      </c>
+      <c r="B180">
+        <v>1598.03</v>
+      </c>
+      <c r="C180">
+        <v>1667.75</v>
+      </c>
+      <c r="D180">
+        <v>1575.97</v>
+      </c>
+      <c r="E180">
+        <v>1680.3</v>
+      </c>
+      <c r="F180">
+        <v>174967568</v>
+      </c>
+      <c r="G180">
+        <v>17886728</v>
+      </c>
+      <c r="H180">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="6">
+        <v>37344</v>
+      </c>
+      <c r="B181">
+        <v>1521.53</v>
+      </c>
+      <c r="C181">
+        <v>1603.91</v>
+      </c>
+      <c r="D181">
+        <v>1494.83</v>
+      </c>
+      <c r="E181">
+        <v>1693.87</v>
+      </c>
+      <c r="F181">
+        <v>273000768</v>
+      </c>
+      <c r="G181">
+        <v>27783708</v>
+      </c>
+      <c r="H181">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="6">
+        <v>37315</v>
+      </c>
+      <c r="B182">
+        <v>1494.58</v>
+      </c>
+      <c r="C182">
+        <v>1524.7</v>
+      </c>
+      <c r="D182">
+        <v>1476.13</v>
+      </c>
+      <c r="E182">
+        <v>1544.92</v>
+      </c>
+      <c r="F182">
+        <v>84670544</v>
+      </c>
+      <c r="G182">
+        <v>7913097</v>
+      </c>
+      <c r="H182">
+        <v>-9.3700000000000006E-2</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="6">
+        <v>37287</v>
+      </c>
+      <c r="B183">
+        <v>1643.48</v>
+      </c>
+      <c r="C183">
+        <v>1491.67</v>
+      </c>
+      <c r="D183">
+        <v>1339.2</v>
+      </c>
+      <c r="E183">
+        <v>1643.5</v>
+      </c>
+      <c r="F183">
+        <v>681675904</v>
+      </c>
+      <c r="G183">
+        <v>12662556</v>
+      </c>
+      <c r="H183">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="6">
+        <v>37256</v>
+      </c>
+      <c r="B184">
+        <v>1751.05</v>
+      </c>
+      <c r="C184">
+        <v>1645.97</v>
+      </c>
+      <c r="D184">
+        <v>1593.03</v>
+      </c>
+      <c r="E184">
+        <v>1776.02</v>
+      </c>
+      <c r="F184">
+        <v>120127184</v>
+      </c>
+      <c r="G184">
+        <v>12929069</v>
+      </c>
+      <c r="H184">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="6">
+        <v>37225</v>
+      </c>
+      <c r="B185">
+        <v>1692.35</v>
+      </c>
+      <c r="C185">
+        <v>1747.99</v>
+      </c>
+      <c r="D185">
+        <v>1550.46</v>
+      </c>
+      <c r="E185">
+        <v>1748</v>
+      </c>
+      <c r="F185">
+        <v>123584352</v>
+      </c>
+      <c r="G185">
+        <v>13449179</v>
+      </c>
+      <c r="H185">
+        <v>-4.2900000000000001E-2</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="6">
+        <v>37195</v>
+      </c>
+      <c r="B186">
+        <v>1766.13</v>
+      </c>
+      <c r="C186">
+        <v>1689.17</v>
+      </c>
+      <c r="D186">
+        <v>1514.86</v>
+      </c>
+      <c r="E186">
+        <v>1773.8</v>
+      </c>
+      <c r="F186">
+        <v>1517008768</v>
+      </c>
+      <c r="G186">
+        <v>12326670</v>
+      </c>
+      <c r="H186">
+        <v>-3.78E-2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="6">
+        <v>37162</v>
+      </c>
+      <c r="B187">
+        <v>1831.7</v>
+      </c>
+      <c r="C187">
+        <v>1764.87</v>
+      </c>
+      <c r="D187">
+        <v>1750.76</v>
+      </c>
+      <c r="E187">
+        <v>1888.9</v>
+      </c>
+      <c r="F187">
+        <v>90997936</v>
+      </c>
+      <c r="G187">
+        <v>10770803</v>
+      </c>
+      <c r="H187">
+        <v>-4.4900000000000002E-2</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="6">
+        <v>37134</v>
+      </c>
+      <c r="B188">
+        <v>1925.24</v>
+      </c>
+      <c r="C188">
+        <v>1834.14</v>
+      </c>
+      <c r="D188">
+        <v>1795.57</v>
+      </c>
+      <c r="E188">
+        <v>1990.7</v>
+      </c>
+      <c r="F188">
+        <v>139259248</v>
+      </c>
+      <c r="G188">
+        <v>15847634</v>
+      </c>
+      <c r="H188">
+        <v>-0.13420000000000001</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="6">
+        <v>37103</v>
+      </c>
+      <c r="B189">
+        <v>2220.42</v>
+      </c>
+      <c r="C189">
+        <v>1920.32</v>
+      </c>
+      <c r="D189">
+        <v>1909.3</v>
+      </c>
+      <c r="E189">
+        <v>2223.21</v>
+      </c>
+      <c r="F189">
+        <v>131808208</v>
+      </c>
+      <c r="G189">
+        <v>18489842</v>
+      </c>
+      <c r="H189">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="6">
+        <v>37071</v>
+      </c>
+      <c r="B190">
+        <v>2216.56</v>
+      </c>
+      <c r="C190">
+        <v>2218.0300000000002</v>
+      </c>
+      <c r="D190">
+        <v>2157.12</v>
+      </c>
+      <c r="E190">
+        <v>2245.44</v>
+      </c>
+      <c r="F190">
+        <v>206876864</v>
+      </c>
+      <c r="G190">
+        <v>29511638</v>
+      </c>
+      <c r="H190">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="6">
+        <v>37042</v>
+      </c>
+      <c r="B191">
+        <v>2119.9</v>
+      </c>
+      <c r="C191">
+        <v>2214.2600000000002</v>
+      </c>
+      <c r="D191">
+        <v>2119.89</v>
+      </c>
+      <c r="E191">
+        <v>2222.65</v>
+      </c>
+      <c r="F191">
+        <v>191673648</v>
+      </c>
+      <c r="G191">
+        <v>26710410</v>
+      </c>
+      <c r="H191">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="6">
+        <v>37011</v>
+      </c>
+      <c r="B192">
+        <v>2117.4499999999998</v>
+      </c>
+      <c r="C192">
+        <v>2119.1799999999998</v>
+      </c>
+      <c r="D192">
+        <v>2081.64</v>
+      </c>
+      <c r="E192">
+        <v>2179.7399999999998</v>
+      </c>
+      <c r="F192">
+        <v>243413504</v>
+      </c>
+      <c r="G192">
+        <v>31638468</v>
+      </c>
+      <c r="H192">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="6">
+        <v>36980</v>
+      </c>
+      <c r="B193">
+        <v>1959.01</v>
+      </c>
+      <c r="C193">
+        <v>2112.7800000000002</v>
+      </c>
+      <c r="D193">
+        <v>1953.72</v>
+      </c>
+      <c r="E193">
+        <v>2112.88</v>
+      </c>
+      <c r="F193">
+        <v>252551472</v>
+      </c>
+      <c r="G193">
+        <v>26876588</v>
+      </c>
+      <c r="H193">
+        <v>-5.1499999999999997E-2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="6">
+        <v>36950</v>
+      </c>
+      <c r="B194">
+        <v>2069.86</v>
+      </c>
+      <c r="C194">
+        <v>1959.18</v>
+      </c>
+      <c r="D194">
+        <v>1893.78</v>
+      </c>
+      <c r="E194">
+        <v>2072.5500000000002</v>
+      </c>
+      <c r="F194">
+        <v>84942920</v>
+      </c>
+      <c r="G194">
+        <v>11183394</v>
+      </c>
+      <c r="H194">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="6">
+        <v>36910</v>
+      </c>
+      <c r="B195">
+        <v>2077.08</v>
+      </c>
+      <c r="C195">
+        <v>2065.61</v>
+      </c>
+      <c r="D195">
+        <v>2007.71</v>
+      </c>
+      <c r="E195">
+        <v>2131.98</v>
+      </c>
+      <c r="F195">
+        <v>125428800</v>
+      </c>
+      <c r="G195">
+        <v>17360124</v>
+      </c>
+      <c r="H195">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="6">
+        <v>36889</v>
+      </c>
+      <c r="B196">
+        <v>2073.09</v>
+      </c>
+      <c r="C196">
+        <v>2073.48</v>
+      </c>
+      <c r="D196">
+        <v>2024.29</v>
+      </c>
+      <c r="E196">
+        <v>2097.29</v>
+      </c>
+      <c r="F196">
+        <v>254129296</v>
+      </c>
+      <c r="G196">
+        <v>2268.3000000000002</v>
+      </c>
+      <c r="H196">
+        <v>5.57E-2</v>
+      </c>
+      <c r="I196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="6">
+        <v>36860</v>
+      </c>
+      <c r="B197">
+        <v>1961.08</v>
+      </c>
+      <c r="C197">
+        <v>2070.61</v>
+      </c>
+      <c r="D197">
+        <v>1959.72</v>
+      </c>
+      <c r="E197">
+        <v>2125.7199999999998</v>
+      </c>
+      <c r="F197">
+        <v>251636240</v>
+      </c>
+      <c r="G197">
+        <v>2677.2</v>
+      </c>
+      <c r="H197">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="6">
+        <v>36830</v>
+      </c>
+      <c r="B198">
+        <v>1912.08</v>
+      </c>
+      <c r="C198">
+        <v>1961.29</v>
+      </c>
+      <c r="D198">
+        <v>1896.95</v>
+      </c>
+      <c r="E198">
+        <v>1980.63</v>
+      </c>
+      <c r="F198">
+        <v>129582712</v>
+      </c>
+      <c r="G198">
+        <v>1354.26</v>
+      </c>
+      <c r="H198">
+        <v>-5.4899999999999997E-2</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="6">
+        <v>36798</v>
+      </c>
+      <c r="B199">
+        <v>2009.15</v>
+      </c>
+      <c r="C199">
+        <v>1910.16</v>
+      </c>
+      <c r="D199">
+        <v>1874.21</v>
+      </c>
+      <c r="E199">
+        <v>2026.35</v>
+      </c>
+      <c r="F199">
+        <v>133138056</v>
+      </c>
+      <c r="G199">
+        <v>1484.99</v>
+      </c>
+      <c r="H199">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="6">
+        <v>36769</v>
+      </c>
+      <c r="B200">
+        <v>2027.01</v>
+      </c>
+      <c r="C200">
+        <v>2021.2</v>
+      </c>
+      <c r="D200">
+        <v>1980.35</v>
+      </c>
+      <c r="E200">
+        <v>2114.52</v>
+      </c>
+      <c r="F200">
+        <v>266701072</v>
+      </c>
+      <c r="G200">
+        <v>3343.54</v>
+      </c>
+      <c r="H200">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="6">
+        <v>36738</v>
+      </c>
+      <c r="B201">
+        <v>1917.44</v>
+      </c>
+      <c r="C201">
+        <v>2023.54</v>
+      </c>
+      <c r="D201">
+        <v>1888.25</v>
+      </c>
+      <c r="E201">
+        <v>2025</v>
+      </c>
+      <c r="F201">
+        <v>223031376</v>
+      </c>
+      <c r="G201">
+        <v>2687.94</v>
+      </c>
+      <c r="H201">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="6">
+        <v>36707</v>
+      </c>
+      <c r="B202">
+        <v>1900.53</v>
+      </c>
+      <c r="C202">
+        <v>1928.11</v>
+      </c>
+      <c r="D202">
+        <v>1884.62</v>
+      </c>
+      <c r="E202">
+        <v>1953.34</v>
+      </c>
+      <c r="F202">
+        <v>294425792</v>
+      </c>
+      <c r="G202">
+        <v>3078.51</v>
+      </c>
+      <c r="H202">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="6">
+        <v>36677</v>
+      </c>
+      <c r="B203">
+        <v>1848.17</v>
+      </c>
+      <c r="C203">
+        <v>1894.55</v>
+      </c>
+      <c r="D203">
+        <v>1695.53</v>
+      </c>
+      <c r="E203">
+        <v>1908.31</v>
+      </c>
+      <c r="F203">
+        <v>209862928</v>
+      </c>
+      <c r="G203">
+        <v>2160.6999999999998</v>
+      </c>
+      <c r="H203">
+        <v>0.02</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="6">
+        <v>36644</v>
+      </c>
+      <c r="B204">
+        <v>1799.58</v>
+      </c>
+      <c r="C204">
+        <v>1836.32</v>
+      </c>
+      <c r="D204">
+        <v>1746.3</v>
+      </c>
+      <c r="E204">
+        <v>1858.27</v>
+      </c>
+      <c r="F204">
+        <v>298831456</v>
+      </c>
+      <c r="G204">
+        <v>2979.81</v>
+      </c>
+      <c r="H204">
+        <v>0.05</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
